--- a/finetuning/it_datasets/it_dataset/it_nabeul_dataset.xlsx
+++ b/finetuning/it_datasets/it_dataset/it_nabeul_dataset.xlsx
@@ -654,9 +654,7 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>If you're in Nabeul and looking for something fun to do, check out Meet'in Cafe Nabeul located at 1 Rue ladhekia AFH, Nabeul 8000. 
-This top-rated destination is perfect for salon de the lovers and offers a range of salon de the to choose from. 
-With a rating of 4.7, it's a must-visit spot. It's open during these hours: 07:00-00:00. To get there, use these GPS coordinates: 36.446818102359, 10.726571861062. For more details, visit their website at https://www.google.com/maps/place/Meet%27in+Caf%C3%A9+Nabeul/data=!4m7!3m6!1s0x1302996f9eb185fd:0xe4886a0f7eb9cd7d!8m2!3d36.4469282!4d10.7266915!16s%2Fg%2F11r_tsvn6t!19sChIJ_YWxnm-ZAhMRfc25fg9qiOQ?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 22 613 613.</t>
+          <t>**Meet'in Cafe Nabeul** is a popular tea room in Nabeul, Tunisia, with a 4.7-star rating based on 21 reviews. The cafe is located at 1 Rue ladhekia AFH, Nabeul 8000, and is open daily from 7:00 AM to midnight. Meet'in Cafe Nabeul is known for its delicious tea and coffee drinks, as well as its friendly staff and relaxing atmosphere. The cafe is also a popular spot for tourists, as it is located near many of the city's attractions.</t>
         </is>
       </c>
     </row>
@@ -759,11 +757,7 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>If you're in Nabeul and looking for a cozy Cafe, check out Chez Haji located at FP4P+CQ6 Chez Haji, Nabeul. 
-This top-rated destination is perfect for Cafe lovers and offers a welcoming atmosphere. 
-With a rating of 4.5, it's a must-visit spot. It's open during these hours: 11:00-20:00. 
-To get there, use these GPS coordinates: 36.4518267, 10.735152. 
-For more details, visit their website at https://www.google.com/maps/place/Chez+Haji/data=!4m7!3m6!1s0x130299fa053f489f:0xd2510c77d18305b0!8m2!3d36.4560425!4d10.7368894!16s%2Fg%2F11gh9p2ny1!19sChIJn0g_BfqZAhMRsAWD0XcMUdI?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 98 512 619.</t>
+          <t>Chez Haji, located in Nabeul at the coordinates (36.4518267, 10.735152), is a highly-rated cafe with a 4.5 rating out of 20 reviews. It is open from 11:00 to 20:00 during the week and is known for its cozy ambiance and delicious offerings.</t>
         </is>
       </c>
     </row>
@@ -866,11 +860,7 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>If you're in Nabeul and looking for something fun to do, check out Cafe Baba Zou located at FP6H+24J Cafe Baba Zou.
-This top-rated destination with 4.8 stars is a must-visit spot for Cafe lovers.
-It's open during these hours: 07:00-00:00, but closed on [closed_on]. 
-To get there, use these GPS coordinates: 36.4518267, 10.735152. 
-For more details, visit their website or call them at 21 803 511.</t>
+          <t>Cafe Baba Zou is a highly-rated cafe located in Nabeul, Tunisia, with a 4.8-star rating from 15 reviews. It is situated at the coordinates (36.4518267, 10.735152). The cafe is open from 7:00 AM to midnight daily and is known for its cozy atmosphere and delicious coffee.</t>
         </is>
       </c>
     </row>
@@ -973,7 +963,7 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>If you're in Nabeul and looking for a great Cafe, check out Hollywood Cafe Nabeul located at Hollywood Cafe Nabeul, Nabeul. This top-rated destination is perfect for Cafe lovers. With a rating of 4.3, it's a must-visit spot. It's open during these hours: 09:00-23:00. To get there, use these GPS coordinates: 36.4518267, 10.735152. For more details, visit their website or call them at 24 672 719.</t>
+          <t>Hollywood Cafe Nabeul is a popular cafe located in Nabeul, Tunisia. The cafe offers a wide variety of food and drinks, including coffee, tea, sandwiches, and pastries. The cafe is also known for its friendly staff and lively atmosphere. Hollywood Cafe Nabeul is located at 36.4518267° N, 10.735152° E.</t>
         </is>
       </c>
     </row>
@@ -1076,9 +1066,7 @@
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>If you're in nabeul and looking for something fun to do, check out Cafe Sahnoun located at FP4H+327 Cafe Sahnoun, Ave. Du 2 Mars 1934, Nabeul. 
-This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. 
-With a rating of 4.7, it's a must-visit spot. It's open during these hours: 05:00-23:00. To get there, use these GPS coordinates: 36.454800338637, 10.724008954315. For more details, visit their website at or call them at 92 033 717.</t>
+          <t>Cafe Sahnoun is a 4.7-rated cafe located in Nabeul, Tunisia. It offers a cozy atmosphere with ample seating, and is known for its friendly staff. The cafe has a convenient location on the main avenue, making it easy to access. With its wide range of beverages, including coffee, tea, and juices, Cafe Sahnoun is a popular spot for locals and tourists alike to relax and socialize.</t>
         </is>
       </c>
     </row>
@@ -1181,11 +1169,7 @@
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>If you're in Nabeul and looking for a cozy spot to unwind, head to Ex-Tasse cafe located at Ex-Tasse cafe, Nabeul. 
-This top-rated destination is a haven for Cafe lovers and offers a warm and inviting ambiance. 
-With a 5.0 rating, it's a must-visit spot. It's open during these hours: 05:00-02:00.
-To get there, use these GPS coordinates: 36.3985906, 10.6240394. 
-For more details, visit their website at https://www.google.com/maps/place/Ex-Tasse+caf%C3%A9/data=!4m7!3m6!1s0x130298c7f2c8ad19:0xf526be279d2f420f!8m2!3d36.4484854!4d10.7224184!16s%2Fg%2F11f3j7b7dg!19sChIJGa3I8seYAhMRD0IvnSe-JvU?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 98 659 311.</t>
+          <t>Ex-Tasse café is a great place to relax and enjoy a cup of coffee. It is located in Nabeul, Tunisia, at coordinates (36.3985906, 10.6240394). The café is open from 5:00 AM to 2:00 AM every day of the week. It offers a variety of coffee drinks, as well as pastries and other snacks. The café has a cozy atmosphere and friendly staff.</t>
         </is>
       </c>
     </row>
@@ -1292,9 +1276,7 @@
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>If you're in nabeul and looking for something fun to do, check out GHARBI COFFEE SHOP located at GHARBI COFFEE SHOP, Municipalite de Bir Challouf, Av, Nabeul 8000. 
-This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. 
-With a rating of 5.0, it's a must-visit spot. It's open during these hours: 05:00-22:00, but closed on None. To get there, use these GPS coordinates: 36.45063999875, 10.720491754227. For more details, visit their website at https://www.facebook.com/%25F0%259D%2590%25BA%25F0%259D%2590%25BB%25F0%259D%2590%25B4%25F0%259D%2591%2585%25F0%259D%2590%25B5%25F0%259D%2590%25BC-%25F0%259D%2590%25B6%25F0%259D%2591%2582%25F0%259D%2590%25B9%25F0%259D%2590%25B9%25F0%259D%2590%25B8%25F0%259D%2590%25B8-%25F0%259D%2591%2586%25F0%259D%2590%25BB%25F0%259D%2591%2582%25F0%259D%2591%2583-105727792138698 or call them at 50 911 006.</t>
+          <t>GHARBI COFFEE SHOP is a cafe located in Nabeul, Tunisia. It is rated 5.0 stars on Google and has 6 reviews. The cafe is open from 5am to 10pm and is closed on Sundays. It is located at the following address: GHARBI COFFEE SHOP, Municipalite de Bir Challouf, Av, Nabeul 8000.</t>
         </is>
       </c>
     </row>
@@ -1393,9 +1375,7 @@
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>If you're in nabeul and looking for something fun to do, check out Cafe Daoued located at FP6X+R27 Cafe Daoued, Rue Med Ali, Nabeul. 
-This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. 
-With a rating of 4.0, it's a must-visit spot. It's open during these hours: 05:00-23:00. To get there, use these GPS coordinates: 36.4518267, 10.735152. For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9+Daoued/data=!4m7!3m6!1s0x130298846dc4a43f:0x79e6eaf1b00ff0ea!8m2!3d36.4620381!4d10.7475551!16s%2Fg%2F11c0rpc24x!19sChIJP6TEbYSYAhMR6vAPsPHq5nk?authuser=0&amp;hl=fr&amp;rclk=1 or call them at Phone number not available.</t>
+          <t>Cafe Daoued is a popular cafe nestled in the heart of Nabeul, Tunisia, at the coordinates (36.4518267, 10.735152). It is renowned for its cozy ambiance and delectable offerings.</t>
         </is>
       </c>
     </row>
@@ -1494,7 +1474,7 @@
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>If you're in Nabeul and looking for a great cafe, check out Cafe De La Foire located at Manege de Nabeul, Nabeul. This top-rated destination is perfect for cafe lovers and offers a cozy atmosphere to relax and enjoy a cup of coffee or tea. With a rating of 4.2, it's a must-visit spot. It's open during these hours: 09:00-00:00. To get there, use these GPS coordinates: 36.45606, 10.73763. For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9+De+La+Foire/data=!4m7!3m6!1s0x130298ecf51c5d4b:0xd8c5ce4f5c79f2da!8m2!3d36.4450158!4d10.7394985!16s%2Fg%2F11d_bkg11z!19sChIJS10c9eyYAhMR2vJ5XE_Oxdg?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Cafe De La Foire is a cafe located in Nabeul at Cafe De La Foire, Manege de Nabeul. It's a cafe with a rating of 4.2 stars out of 5.</t>
         </is>
       </c>
     </row>
@@ -1593,9 +1573,7 @@
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>If you're in Nabeul and looking for a great cafe, check out Garden Cafe located at 2 Ave. Mongi Slim, Nabeul 8000. 
-This top-rated destination is perfect for cafe lovers and offers a range of categories to choose from. 
-With a rating of 4.4, it's a must-visit spot. It's open during these hours: 05:30-23:00 but closed on . To get there, use these GPS coordinates: 36.444830795026, 10.746887415064. For more details, visit their website at  or call them at .</t>
+          <t>Garden Cafe is located at 2 Ave. Mongi Slim, Nabeul 8000 and has an impressive rating of 4.4 stars based on 5 reviews. It is a cozy cafe open from 5.30 AM to 11 PM daily, offering a welcoming atmosphere for locals and tourists to enjoy a cup of coffee or a quick bite.</t>
         </is>
       </c>
     </row>
@@ -1698,10 +1676,7 @@
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>If you're in nabeul and looking for a top-rated cafe, Le Treizieme Coffee Shop is a must-visit destination. 
-Located at CPXH+MVP Le Treizieme Coffee Shop, Nabeul, it's open 24 hours a day. 
-With a rating of 5.0, it's a popular spot for coffee lovers. 
-For more details, visit their website or call them at 20 667 077.</t>
+          <t>Le Treizieme Coffee Shop, located at CPXH+MVP in Nabeul, is a highly rated (5.0 out of 5) cafe that is open around the clock.</t>
         </is>
       </c>
     </row>
@@ -1800,7 +1775,7 @@
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>If you're in nabeul and looking for something fun to do, check out Cafe Am Ali located at FP3V+RC7 Cafe Am Ali, Nabeul. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. With a rating of 4.3, it's a must-visit spot. It's open during these hours: Ouvert 24h/24. To get there, use these GPS coordinates: 36.4518267, 10.735152.</t>
+          <t>Cafe Am Ali is a 4.3-rated cafe located in Nabeul, Tunisia. It is open 24 hours a day and offers a variety of food and drinks. The cafe is located at 36.4518267, 10.735152.</t>
         </is>
       </c>
     </row>
@@ -1903,7 +1878,7 @@
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>If you're in nabeul and looking for a great Cafe, check out Cafe La Rosa located at Ave. Hedi Chaker, Nabeul 8000. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe and Cafeteria to choose from. With a rating of 5.0, it's a must-visit spot. It's open during these hours: 06:00-22:00, but closed on []. To get there, use these GPS coordinates: 36.4528242, 10.7358734. For more details, visit their website at [website] or call them at 26 104 040.</t>
+          <t>Cafe La Rosa is a highly-rated cafe located in Nabeul, Tunisia. It's known for its warm and friendly atmosphere, and serves a variety of delicious food and drinks. The cafe is situated at the coordinates (36.4528242, 10.7358734) and is open daily from 6:00 AM to 10:00 PM.</t>
         </is>
       </c>
     </row>
@@ -2002,7 +1977,7 @@
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>If you're in nabeul and looking for something fun to do, check out Cafe Toscana located at 2 Ave. Mongi Slim Nabeul 8000 Ave. Mongi Slim, Nabeul 8000. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. With a rating of 4.5, it's a must-visit spot. It's open during these hours: 06:00-23:00. To get there, use these GPS coordinates: 36.444830795026, 10.746887415064.</t>
+          <t>Cafe Toscana is a highly-rated cafe located in Nabeul, Tunisia, offering a cozy atmosphere and delicious food. Open daily from 6 AM to 11 PM, it's a convenient spot for breakfast, lunch, or dinner. The cafe is at the coordinates (36.444830795026, 10.746887415064) and is easily accessible by car or foot.</t>
         </is>
       </c>
     </row>
@@ -2101,7 +2076,7 @@
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>If you're in Nabeul and looking for something fun to do, check out cafe star at FP2M+PXX cafe star, C27, Nabeul. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. With a rating of 5.0, it's a must-visit spot. It's open during these hours: 06:30-21:00, but closed on []. To get there, use these GPS coordinates: 36.4518267, 10.735152. For more details, visit their website at https://www.google.com/maps/place/caf%C3%A9+star/data=!4m7!3m6!1s0x130298944ad46839:0x67f9152c82c99829!8m2!3d36.4518525!4d10.7349977!16s%2Fg%2F1hc6hq7jc!19sChIJOWjUSpSYAhMRKZjJgiwV-Wc?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>Café Star is a highly rated cafe located in Nabeul, Tunisia, offering a cozy and welcoming ambiance. The cafe has a convenient location and is open from 6:30 AM to 9:00 PM, providing ample time to enjoy a variety of beverages and snacks. While the exact offerings and menu are not specified in the provided information, the cafe is sure to delight coffee enthusiasts and those seeking a relaxing and enjoyable experience.</t>
         </is>
       </c>
     </row>
@@ -2200,7 +2175,7 @@
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>If you're in Nabeul and looking for a great cafe, check out Seven Days at 8 Av. Habib Karma. This 5.0-rated destination is perfect for coffee and tea lovers and is open from 6:00-00:00 on all days of the week.</t>
+          <t>Located at 8 Av Habib Karma, Nabeul, Seven Days is a highly-rated cafe with a 5-star rating. It is open from 6 AM to midnight, making it a great spot for breakfast, lunch, or dinner. The cafe's featured image shows a cozy and inviting atmosphere, with a variety of seating options. Seven Days is located at the coordinates (36.454024108338, 10.740572070116) and offers a convenient location for locals and travelers alike.</t>
         </is>
       </c>
     </row>
@@ -2303,7 +2278,7 @@
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>If you're in Nabeul and looking for a great cafe experience, head to Cafe El Nakhil, located at FP3M+65M Cafe El Nakhil, Av. Habib Thameur. This top-rated cafe serves up delicious coffee and pastries, and offers a cozy and inviting atmosphere. With a rating of 5.0 stars, it's a must-visit spot for cafe lovers. Cafe El Nakhil is open daily from 7:00am to 11:00pm. To get there, use these GPS coordinates: 36.451307202531, 10.727642077434.</t>
+          <t>Cafe El Nakhil is a highly-rated cafe nestled in the heart of Nabeul, Tunisia. Situated at the coordinates (36.451307202531, 10.727642077434), it serves customers from 7:00 AM to 11:00 PM every day. With an impressive 5.0 rating, Cafe El Nakhil is renowned for its delectable offerings, making it a must-visit destination for coffee enthusiasts and food lovers alike.</t>
         </is>
       </c>
     </row>
@@ -2406,10 +2381,7 @@
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>If you're in Nabeul and looking for a great restaurant, check out Bendo Coffee Restaurant located at Habib Bourguiba St. 
-This top-rated destination is perfect for restaurant lovers and offers a range of options to choose from. 
-With a rating of 4.2, it's a must-visit spot. It's open during these hours: 07:00-00:55. 
-To get there, use these GPS coordinates: 36.443102, 10.716336. For more details, call them at 20 426 427.</t>
+          <t>Bendo Coffee Restaurant, located in Nabeul, is a popular dining spot known for its impressive ratings and positive reviews. The restaurant offers an inviting ambiance, with its main focus being on providing a delightful dining experience. Bendo Coffee Restaurant is conveniently positioned with coordinates (36.443102, 10.716336), making it easily accessible.</t>
         </is>
       </c>
     </row>
@@ -2516,10 +2488,7 @@
       </c>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>If you're in nabeul and looking for a quick bite, check out GARAGE 41 located at 41 Av. Hedi Nouira, Nabeul 8000. 
-This top-rated destination is perfect for fast food lovers and also offers restaurant options to choose from. 
-With a rating of 4.2, it's a must-visit spot for your main course. It's open during these hours: 12:00-23:00, but closed on tuesdays. 
-To get there, use these GPS coordinates: 36.44658081068, 10.718191466629. For more details, visit their website at http://instagram.com/garage_41_nabeul or call them at 29 514 141.</t>
+          <t>GARAGE 41 is a fast food restaurant located in Nabeul, Tunisia. It's situated at the coordinates (36.44658081068, 10.718191466629). The restaurant offers a variety of dishes, including baguettes, tacos, and other fast food items. The restaurant has a 4.2 rating based on 103 reviews and is open from 12:00pm to 11:00pm, except on Tuesdays when it's closed. Check out their Instagram (@garage_41_nabeul) for more details.</t>
         </is>
       </c>
     </row>
@@ -2626,7 +2595,7 @@
       </c>
       <c r="Y21" t="inlineStr">
         <is>
-          <t>If you're in Nabeul and looking for a great meal, check out Happy Day at FP3J+2J5. This top-rated restaurant is perfect for Restaurant lovers. With a rating of 4.2, it's a must-visit spot. It's open during these hours: 11:00-00:00. To get there, use these GPS coordinates: 36.4518267, 10.735152. For more details, visit their website at https://best--restaurants.blogspot.com/ or call them at 20 100 792.</t>
+          <t>Happy Day is a restaurant located in Nabeul, Tunisia. It offers a variety of dishes, including pizza, at affordable prices. The restaurant is open from 11:00 AM to midnight, and is closed on Tuesdays. Happy Day has received mostly positive reviews, with many customers praising the food and service. The restaurant is located at 36.4518267 latitude and 10.735152 longitude.</t>
         </is>
       </c>
     </row>
@@ -2733,7 +2702,7 @@
       </c>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>If you're in Nabeul and looking for something fun to do, check out Seven Swag Bistro located at Rue saida, Nabeul 8000. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. With a rating of 4.0, it's a must-visit spot. It's open during these hours: 08:00-00:00, but closed on None. To get there, use these GPS coordinates: 36.443102, 10.716336. For more details, visit their website at https://www.facebook.com/Seven-Swag-1228051577244128/ or call them at 36 383 364.</t>
+          <t>Seven Swag Bistro, located on Rue Saida in Nabeul, Tunisia, offers a welcoming ambiance for cafe enthusiasts. With a rating of 4.0 based on 57 reviews, it's a popular destination known for its reasonable prices. Situated at (36.443102, 10.716336), the bistro is an excellent spot to relax and enjoy a refreshing coffee or tea.</t>
         </is>
       </c>
     </row>
@@ -2836,9 +2805,7 @@
       </c>
       <c r="Y23" t="inlineStr">
         <is>
-          <t>If you're in Nabeul and looking for a great dining experience, head to Syrian Corner located at Syrian Corner, Hedi Chaker St., Nabeul 8000. 
-This top-rated destination is perfect for Restaurant lovers. 
-With a rating of 4.4, it's a must-visit spot. It's open during these hours: 07:00-23:30, but closed . For more details, visit their website at  or call them at 21 008 009.</t>
+          <t>Syrian Corner is a restaurant in Nabeul, Tunisia, located at 36.443102 latitude and 10.716336 longitude. The restaurant offers a variety of dishes, including sandwiches, chawarma, and chicken dishes. It is known for its friendly atmosphere, cleanliness, and reasonable prices. The restaurant has received positive reviews from customers, with many praising its food and service.</t>
         </is>
       </c>
     </row>
@@ -2945,7 +2912,7 @@
       </c>
       <c r="Y24" t="inlineStr">
         <is>
-          <t>If you find yourself in Nabeul, be sure to visit Crespella, located at CPWG+HFP Crespella. This highly-rated restaurant is known for its crepes and pizza, and also offers a wide variety of other dishes. With a rating of 4.2 out of 5, it's a must-visit spot for restaurant lovers. It's open from 10:00 AM to 11:00 PM, and you can reach them by phone at 56 688 666. For more information, visit their website at https://www.facebook.com/crespellatn/.</t>
+          <t>Crespella is a highly-rated restaurant in Nabeul, Tunisia, offering a range of dining options. With an extensive menu featuring crepes (13 reviews) and pizzas (3 reviews), this eatery has earned a 4.2-star rating from 54 reviews. Located at (36.4518267, 10.735152), it operates daily from 10 AM to 11 PM, providing a convenient and enjoyable dining experience for locals and visitors alike.</t>
         </is>
       </c>
     </row>
@@ -3044,9 +3011,7 @@
       </c>
       <c r="Y25" t="inlineStr">
         <is>
-          <t>If you find yourself in Nabeul and are in search of a delightful cafe, consider visiting Buvette de la Plage Nabeul. 
-Conveniently located at CPRV+RMJ Buvette de la Plage Nabeul, corniche, Av. Taieb Mhiri, this cafe has earned a solid rating of 4.3. 
-Enjoy their offerings from 06:00-00:00 during the week. Check their website for more information.</t>
+          <t>Located in Nabeul (Tunisia), Buvette de la Plage Nabeul is a popular cafe with a 4.3/5 stars rating based on 23 reviews. The cafe is open from 6am to midnight and is known for its great service and welcoming atmosphere. It is located on the Corniche, Avenue Taieb Mhiri, close to the beach.</t>
         </is>
       </c>
     </row>
@@ -3149,9 +3114,7 @@
       </c>
       <c r="Y26" t="inlineStr">
         <is>
-          <t>If you're in nabeul and looking for a top-rated Restaurant, check out Chez Hamhoum located at FP3R+6CP Chez Hamhoum, 41 Mongi Slim St. 
-This destination is perfect for Restaurant lovers and offers a range of Restaurant categories to choose from. 
-With a rating of 4.1, it's a must-visit spot. It's open during these hours: 09:00-23:00, but closed on None. To get there, use these GPS coordinates: 36.399773706868, 10.614846372332. For more details, visit their link at https://www.google.com/maps/place/Chez+Hamhoum/data=!4m7!3m6!1s0x1302989185109521:0xf7bac9461b16c8ac!8m2!3d36.4532279!4d10.7413555!16s%2Fg%2F1ts6q86l!19sChIJIZUQhZGYAhMRrMgWG0bJuvc?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 50 143 388.</t>
+          <t>Chez Hamhoum is a restaurant located in Nabeul, Tunisia. It serves pizza and other dishes and is open from 9 am to 11 pm. The restaurant has received positive reviews from customers, with a 4.1 rating on Google. It is located at the following coordinates: (36.399773706868, 10.614846372332).</t>
         </is>
       </c>
     </row>
@@ -3254,9 +3217,7 @@
       </c>
       <c r="Y27" t="inlineStr">
         <is>
-          <t>If you're in Nabeul and looking for a great place to relax and enjoy a cup of tea, check out Meet'in Cafe Nabeul located at 1 Rue ladhekia AFH. 
-This highly-rated destination is perfect for tea lovers. 
-With a rating of 4.7, it's a must-visit spot. It's open during these hours: 7:00 AM - 12:00 AM. To get there, use these GPS coordinates: (36.446818102359, 10.726571861062). For more details, visit their website or call them at 22 613 613.</t>
+          <t>Meet'in Cafe Nabeul is a tea room located in Nabeul (Tunisia), at the coordinates (36.446818102359, 10.726571861062). It has a 4.7 rating based on 21 reviews and is open from 7:00 AM to midnight.</t>
         </is>
       </c>
     </row>
@@ -3359,7 +3320,7 @@
       </c>
       <c r="Y28" t="inlineStr">
         <is>
-          <t>If you're in Nabeul, Chez Haji located at FP4P+CQ6 is a top-rated cafe with a rating of 4.5. It's open from 11:00 AM to 8:00 PM all week. To get there, use these GPS coordinates: 36.4518267, 10.735152. For more details, visit their website at https://www.google.com/maps/place/Chez+Haji/data=!4m7!3m6!1s0x130299fa053f489f:0xd2510c77d18305b0!8m2!3d36.4560425!4d10.7368894!16s%2Fg%2F11gh9p2ny1!19sChIJn0g_BfqZAhMRsAWD0XcMUdI?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 98 512 619.</t>
+          <t>Chez Haji is a cozy café located in Nabeul, Tunisia. It offers a delightful ambiance and serves a variety of coffee, tea, and snacks. Located at coordinates (36.4518267, 10.735152), it's a popular spot for locals and tourists alike. With a rating of 4.5 stars based on 20 reviews, Chez Haji is highly recommended for those seeking a relaxing and enjoyable café experience.</t>
         </is>
       </c>
     </row>
@@ -3466,7 +3427,7 @@
       </c>
       <c r="Y29" t="inlineStr">
         <is>
-          <t>If you're in nabeul and looking for a nice Cafe, check out Story Ville coffee located at Story Ville coffee, 1er etage, Rue des Martyres, Nabeul 8000. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. With a rating of 4.0, it's a must-visit spot. It's open during these hours: 08:00-01:00. To get there, use these GPS coordinates: 36.443102, 10.716336. For more details, visit their website at https://www.facebook.com/StoryVille-coffee-company-386951938770868/ or call them at 26 756 754.</t>
+          <t>Story Ville coffee, located in Nabeul (coordinates : 36.443102,10.716336), is a cafe with a 4.0 rating based on 19 reviews. It is open from 8am to 1am everyday and offers a cozy atmosphere for its customers to enjoy their coffee and other beverages. The cafe also has a website and a Facebook page where customers can learn more about the menu and upcoming events.</t>
         </is>
       </c>
     </row>
@@ -3569,8 +3530,7 @@
       </c>
       <c r="Y30" t="inlineStr">
         <is>
-          <t>If you are visiting nabeul and craving for some coffee, check out KODAS cafe bibliotheque located at CQW2+MCC KODAS cafe bibliotheque, hotel lido, derriere hotel Riadh vers, Rue 9 avril. 
-This top-rated destination with a rating of 4.8 is perfect for Cafe lovers. KODAS cafe bibliotheque is open 24 hours a day, 7 days a week. For more details, visit their website at https://web.facebook.com/cafebibliotheque/%3Fmodal%3Dadmin_todo_tour or call them at 54 116 928.</t>
+          <t>KODAS cafe bibliotheque is a cafe located in Nabeul,Tunisia. It has a rating of 4.8 stars on Google and offers a variety of services, including cafe and library services. The cafe is located at the coordinates (36.4518267, 10.735152).</t>
         </is>
       </c>
     </row>
@@ -3673,7 +3633,7 @@
       </c>
       <c r="Y31" t="inlineStr">
         <is>
-          <t>If you're in Nabeul and looking for a great cafe, check out Hollywood Cafe Nabeul located at Hollywood Cafe Nabeul, Nabeul. This top-rated destination is perfect for cafe lovers and offers a range of cafe options to choose from. With a rating of 4.3, it's a must-visit spot. It's open during these hours: 09:00-23:00, but closed on . To get there, use these GPS coordinates: 36.4518267, 10.735152. For more details, visit their website or call them at 24 672 719.</t>
+          <t>Located in Nabeul, Hollywood Cafe Nabeul (36.4518267, 10.735152) is a cafe that welcomes you every day from 09:00 to 23:00. Rated 4.3/5 by its visitors, it has received 14 reviews.</t>
         </is>
       </c>
     </row>
@@ -3768,7 +3728,7 @@
       </c>
       <c r="Y32" t="inlineStr">
         <is>
-          <t>If you're in Nabeul and looking for a top-rated cafe, check out Hundred coffee located at CMPV+4QX Hundred coffee, Nabeul. With a rating of 4.8, it's a must-visit spot for cafe lovers. To get there, use these GPS coordinates: 36.4518267, 10.735152.</t>
+          <t>Hundred coffee is a cafe located in Nabeul (Tunisia) (36.4518267, 10.735152). It has a rating of 4.8 stars out of 5 and is open every day of the week (closed on). Hundred coffee offers a wide range of coffee drinks, as well as pastries and light snacks. It is a popular spot for locals and tourists alike, and is known for its friendly staff and cozy atmosphere.</t>
         </is>
       </c>
     </row>
@@ -3871,9 +3831,7 @@
       </c>
       <c r="Y33" t="inlineStr">
         <is>
-          <t>If you're in nabeul and looking for something fun to do, check out Cafe maure chez hajji nabeul located at Cafe maure chez hajji nabeul, Nabeul.
-This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. 
-With a rating of 4.9, it's a must-visit spot. It's open during these hours: 06:00-20:00. To get there, use these GPS coordinates: 36.4518267, 10.735152. For more details, call them at 20 395 490.</t>
+          <t>Cafe maure chez hajji nabeul is a renowned cafe located in Nabeul, Tunisia. Situated at coordinates (36.4518267, 10.735152), it operates from 6:00 AM to 8:00 PM daily. With an impressive rating of 4.9, it has garnered positive reviews from customers. The cafe specializes in providing a cozy and welcoming atmosphere, offering a range of beverages and snacks to satisfy its patrons.</t>
         </is>
       </c>
     </row>
@@ -3980,9 +3938,7 @@
       </c>
       <c r="Y34" t="inlineStr">
         <is>
-          <t>If you're in nabeul and looking for a top-rated Cafe, check out Cafe Flamingo located at CPWW+4MR Cafe Flamingo, Nabeul. 
-This destination is perfect for Cafe lovers and offers a range of Cafe to choose from. 
-With a rating of 4.2, it's a must-visit spot. It's open 24 hours a day. To get there, use these GPS coordinates: 36.3736422, 10.5402689. For more details, visit their website at https://www.facebook.com/Caf%C3%A9-Flamingo-Nabeul-1463819173862920/ or call them at 22 300 409.</t>
+          <t>Cafe Flamingo is a highly-rated cafe located in Nabeul, Tunisia, with a 4.2-star rating based on 10 reviews. It is open 24 hours a day and offers a variety of amenities, including a featured image, reviews, website, phone number, address, coordinates, city, and opening hours.</t>
         </is>
       </c>
     </row>
@@ -4085,7 +4041,7 @@
       </c>
       <c r="Y35" t="inlineStr">
         <is>
-          <t>If you're in Nabeul and looking for a great cafe, check out Ex-Tasse cafe located at Ex-Tasse cafe, Nabeul. This top-rated destination is perfect for Cafe lovers. With a rating of 5.0, it's a must-visit spot. It's open during these hours: 05:00-02:00. To get there, use these GPS coordinates: 36.3985906, 10.6240394. For more details, visit their website or call them at 98 659 311.</t>
+          <t>Ex-Tasse Cafe is a 5-star cafe located in Nabeul, Tunisia. They offer a wide variety of food and drinks, and they are open from 5:00 AM to 2:00 AM, 7 days a week.</t>
         </is>
       </c>
     </row>
@@ -4192,7 +4148,7 @@
       </c>
       <c r="Y36" t="inlineStr">
         <is>
-          <t>If you're in nabeul and looking for something fun to do, check out GHARBI COFFEE SHOP located at GHARBI COFFEE SHOP, Municipalite de Bir Challouf, Av, Nabeul 8000. This top-rated destination is perfect for Cafe lovers. With a rating of 5.0, it's a must-visit spot. It's open during these hours: 05:00-22:00 but closed on . To get there, use these GPS coordinates: 36.45063999875, 10.720491754227. For more details, visit their website at https://www.facebook.com/%25F0%259D%2590%25BA%25F0%259D%2590%25BB%25F0%259D%2590%25B4%25F0%259D%2591%2585%25F0%259D%2590%25B5%25F0%259D%2590%25BC-%25F0%259D%2590%25B6%25F0%259D%2591%2582%25F0%259D%2590%25B9%25F0%259D%2590%25B9%25F0%259D%2590%25B8%25F0%259D%2590%25B8-%25F0%259D%2591%2586%25F0%259D%2590%25BB%25F0%259D%2591%2582%25F0%259D%2591%2583-105727792138698 or call them at 50 911 006.</t>
+          <t>**GHARBI COFFEE SHOP** is a cafe located in the municipality of Bir Challouf, Nabeul. It is highly rated (5/5) and offers a warm and friendly atmosphere. The cafe serves a variety of coffee and tea drinks, as well as snacks and pastries. It is open from 5am to 10pm, 7 days a week.</t>
         </is>
       </c>
     </row>
@@ -4295,11 +4251,12 @@
       </c>
       <c r="Y37" t="inlineStr">
         <is>
-          <t>If you're in nabeul and looking for a cozy spot, check out The coffee lqhw@ located at Ave. Mohammed V, Nabeul. 
-This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. 
-With a rating of 4.3, it's a must-visit spot. It's open during these hours: 07:00-00:00. 
-To get there, use these GPS coordinates: 36.463596624308, 10.785871218486. 
-For more details, visit their website at https://www.google.com/maps/place/The+coffee+%D8%A7%D9%84%D9%82%D9%87%D9%88%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x1302992dbac14e1f:0x32126d47936973ef!8m2!3d36.4428749!4d10.7281714!16s%2Fg%2F11r1jvd6_w!19sChIJH07Bui2ZAhMR73Npk0dtEjI?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 93 015 529.</t>
+          <t>**Cafe in **Nabeul** **offering a variety of coffee and drinks in a cozy atmosphere.**
+- **Location:** Ave. Mohammed V, Nabeul
+- **Coordinates:** (36.463596624308, 10.785871218486)
+- **Website:** https://www.google.com/maps/place/The+coffee+%D8%A7%D9%84%D9%82%D9%87%D9%88%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x1302992dbac14e1f:0x32126d47936973ef!8m2!3d36.4428749!4d10.7281714!16s%2Fg%2F11r1jvd6_w!19sChIJH07Bui2ZAhMR73Npk0dtEjI?authuser=0&amp;hl=fr&amp;rclk=1
+- **Phone:** 93 015 529
+- **Hours:** 7:00 AM - 12:00 AM</t>
         </is>
       </c>
     </row>
@@ -4398,9 +4355,7 @@
       </c>
       <c r="Y38" t="inlineStr">
         <is>
-          <t>If you're in nabeul and looking for something fun to do, check out Cafe Daoued located at FP6X+R27 Cafe Daoued, Rue Med Ali, Nabeul. 
-This destination is perfect for Cafe lovers and offers a range of Cafe to choose from. 
-With a rating of 4.0, it's a must-visit spot. It's open during these hours: 05:00-23:00. To get there, use these GPS coordinates: 36.4518267, 10.735152. For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9+Daoued/data=!4m7!3m6!1s0x130298846dc4a43f:0x79e6eaf1b00ff0ea!8m2!3d36.4620381!4d10.7475551!16s%2Fg%2F11c0rpc24x!19sChIJP6TEbYSYAhMR6vAPsPHq5nk?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Cafe Daoued is a highly-rated cafe located at FP6X+R27 Rue Med Ali, Nabeul, Tunisia. It's open from 5 AM to 11 PM. The coordinates are (36.4518267, 10.735152).</t>
         </is>
       </c>
     </row>
@@ -4499,7 +4454,9 @@
       </c>
       <c r="Y39" t="inlineStr">
         <is>
-          <t>If you're in Nabeul and looking for something fun to do, check out Cafe De La Foire located at Manege de Nabeul, Nabeul. This top-rated destination is perfect for cafe lovers and offers a range of cafe options to choose from. With a rating of 4.2, it's a must-visit spot. It's open during these hours: 09:00-00:00, but closed on none of the days of the week. To get there, use these GPS coordinates: 36.45606, 10.73763. For more details, visit their website at or call them at</t>
+          <t>**Cafe De La Foire**
+Located in the bustling Nabeul, Cafe De La Foire is a highly-rated cafe that opens until midnight. It has a warm and inviting ambiance, making it a popular spot for locals and tourists alike. The cafe offers a variety of coffee and tea options, as well as pastries and other snacks. With its convenient location and extended hours, Cafe De La Foire is a great place to relax and enjoy a refreshing beverage.
+**Coordinates:** 36.45606, 10.73763</t>
         </is>
       </c>
     </row>
@@ -4598,7 +4555,7 @@
       </c>
       <c r="Y40" t="inlineStr">
         <is>
-          <t>If you're in nabeul and looking for something fun to do, check out Garden Cafe located at 2 Ave. Mongi Slim, Nabeul 8000. This top-rated spot is perfect for Cafe lovers and offers a range of Cafe to choose from. With a rating of 4.4, it's a must-visit spot. It's open during these hours: 05:30-23:00, but closed on []. To get there, use these GPS coordinates: 36.444830795026, 10.746887415064. For more details, visit their website at [website] or call them at [phone].</t>
+          <t>Garden Cafe is a cafe located in Nabeul, Tunisia. It offers a variety of food and drinks, and has a rating of 4.4 out of 5 stars. The cafe is situated at the coordinates (36.444830795026, 10.746887415064).</t>
         </is>
       </c>
     </row>
@@ -4701,9 +4658,7 @@
       </c>
       <c r="Y41" t="inlineStr">
         <is>
-          <t>If you're in nabeul and looking for something fun to do, check out Che Cafe located at Rue Aouina kawniya Nabeul, 8000. 
-This top-rated destination is perfect for Salon de the lovers. 
-With a rating of 4.0, it's a must-visit spot. It's open during these hours: 05:00-00:00, but closed on none. To get there, use these GPS coordinates: 36.443102, 10.716336. For more details, visit their website at https://www.google.com/maps/place/Ch%C3%A9+Caf%C3%A9/data=!4m7!3m6!1s0x1302992cebcddadd:0x2ab6c5e8daf7c681!8m2!3d36.4475164!4d10.7324073!16s%2Fg%2F11j378vq8w!19sChIJ3drN6yyZAhMRgcb32ujFtio?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 29 610 906.</t>
+          <t>**Che Cafe** is a delightful tea room located on Rue Aouina kawniya Nabeul, offering a cozy ambiance and delicious tea selections. Situated at the convenient coordinates (36.443102, 10.716336), it's easily accessible within Nabeul. Che Cafe serves as a perfect spot to relax and enjoy the aromatic flavors of tea.</t>
         </is>
       </c>
     </row>
@@ -4806,7 +4761,7 @@
       </c>
       <c r="Y42" t="inlineStr">
         <is>
-          <t>If you're in Nabeul and looking for a top-rated Cafe spot, check out Costa Cafe at CPVM+WWJ Costa Cafe, Nabeul. This local favorite offers a range of Cafe options and is sure to satisfy any craving. With a rating of 4.0, it's a must-visit spot. It's open during these hours: 06:00-01:00, but closed on []. To get there, use these GPS coordinates: 36.4518267, 10.735152. For more details, visit their website or call them at 22 786 633.</t>
+          <t>Costa Cafe is a cafe located in Nabeul, Tunisia. It is open from 6 AM to 1 AM and has a rating of 4.0 out of 5 stars. It offers a wide range of food and drinks, including coffee, tea, pastries, and sandwiches. The cafe is located at 36.4518267, 10.735152 and can be contacted by phone at 22 786 633.</t>
         </is>
       </c>
     </row>
@@ -4909,9 +4864,7 @@
       </c>
       <c r="Y43" t="inlineStr">
         <is>
-          <t>If you're in Nabeul and looking for a top-rated Cafe, check out Cafe les Arcades located at 73 Av. Farhat Hached. 
-This destination is perfect for Cafe lovers and offers a range of Cafe to choose from. 
-With a rating of 4.0, it's a must-visit spot. It's open during these hours: 06:00-21:00, but closed on None. To get there, use these GPS coordinates: 36.455400794025, 10.736774481245. For more details, visit their website (link not provided) or call them at 98 545 010.</t>
+          <t>Cafe les Arcades is a cafe in Nabeul, Tunisia, located at 36.455400794025, 10.736774481245. It has a rating of 4.0 based on 4 reviews and is open from 6 AM to 9 PM. The cafe offers a variety of coffee and tea drinks, as well as pastries and other light snacks.</t>
         </is>
       </c>
     </row>
@@ -5014,10 +4967,7 @@
       </c>
       <c r="Y44" t="inlineStr">
         <is>
-          <t>If you're in Nabeul and looking for something fun to do, check out Cafe La Rosa located at Ave. Hedi Chaker. 
-This top-rated destination is perfect for cafe lovers and offers a range of Cafe, Cafeteria to choose from. 
-With a rating of 5.0, it's a must-visit spot. It's open during these hours: 06:00-22:00. 
-To get there, use these GPS coordinates: 36.4528242, 10.7358734. For more details, visit their website or call them at 26 104 040.</t>
+          <t>Café La Rosa, located in Nabeul at the coordinates (36.4528242, 10.7358734), is a highly-rated (5.0/5) café with a cozy ambiance. Open daily from 6 AM to 10 PM, it offers a relaxing atmosphere for locals and visitors alike.</t>
         </is>
       </c>
     </row>
@@ -5120,9 +5070,7 @@
       </c>
       <c r="Y45" t="inlineStr">
         <is>
-          <t>If you're in nabeul and looking for a great cafe, check out Chill &amp; Grind located at Diar Sidi Slimene, 007 Ave. Mohammed V, Nabeul 8000. 
-This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. 
-With a rating of 5.0, it's a must-visit spot. It's open during these hours: 06:00-00:00 . To get there, use these GPS coordinates: 36.4447962, 10.7346864. For more details, visit their website at https://lh5.googleusercontent.com/p/AF1QipNMQsvAi9lHbGWwl0JFagjVFoJq0rI3nQqPg0jw=w408-h408-k-no or call them at 28 399 939.</t>
+          <t>Chill &amp; Grind is a cafe located at Diar Sidi Slimene, 007 Ave. Mohammed V, Nabeul, Tunisia. It offers a cozy ambiance and a variety of coffee, tea, and pastries. The cafe is open from 6am to midnight, seven days a week.</t>
         </is>
       </c>
     </row>
@@ -5221,8 +5169,7 @@
       </c>
       <c r="Y46" t="inlineStr">
         <is>
-          <t>If you're in Nabeul and looking for something fun to do, check out Cafe Toscana located at Cafe Toscana, 2 Ave. Mongi Slim Nabeul 8000 Ave. Mongi Slim. 
-This top-rated destination is perfect for Cafe lovers. With a rating of 4.5, it's a must-visit spot. It's open during these hours: 06:00-23:00, but closed on []. To get there, use these GPS coordinates: 36.444830795026, 10.746887415064. For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9+Toscana/data=!4m7!3m6!1s0x130298918f212519:0xf0a8bfb27b73ac86!8m2!3d36.4530904!4d10.741657!16s%2Fg%2F11g728n441!19sChIJGSUhj5GYAhMRhqxze7K_qPA?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Café Toscana is a popular cafe located in Nabeul, Tunisia. It offers a variety of coffee and tea drinks, as well as pastries and other snacks. The cafe is open daily from 6am to 11pm.</t>
         </is>
       </c>
     </row>
@@ -5321,9 +5268,7 @@
       </c>
       <c r="Y47" t="inlineStr">
         <is>
-          <t>If you're in nabeul and looking for something fun to do, check out Coffee Resto Dalida located at CPVV+F83 Avenue Taibe Mhiri, Nabeul. 
-This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. 
-With a rating of 4.5, it's a must-visit spot. It's open during these hours: 07:00-23:00. To get there, use these GPS coordinates: 36.651365230548, 10.589325220128. For more details, visit their website at https://www.google.com/maps/place/Coffee+Resto+Dalida/data=!4m7!3m6!1s0x130299e1886567f5:0xdc697994c3cabca6!8m2!3d36.4436403!4d10.7432989!16s%2Fg%2F11tsr4n1_l!19sChIJ9WdliOGZAhMRprzKw5R5adw?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
+          <t>Located in Nabeul, Avenue Taibe Mhiri, Coffee Resto Dalida is a 4.5-star-rated cafe. Its exact coordinates are (36.651365230548, 10.589325220128), and it's open from 7:00 AM to 11:00 PM every day.</t>
         </is>
       </c>
     </row>
@@ -5418,7 +5363,7 @@
       </c>
       <c r="Y48" t="inlineStr">
         <is>
-          <t>If you're in Nabeul and looking for a great cafe, head over to Caffe napoli at FP2P+G77 Caffe napoli, nhj lshj`@, Nabeul. Rated 5.0, it's the perfect spot for coffee lovers. To get there, use these GPS coordinates: 36.4518267, 10.735152. Visit their website at https://www.google.com/maps/place/Caff%C3%A8+napoli/data=!4m7!3m6!1s0x130299223a4aaa95:0x5c256d8581b0476f!8m2!3d36.4512893!4d10.7356634!16s%2Fg%2F11tf12sw69!19sChIJlapKOiKZAhMRb0ewgYVtJVw?authuser=0&amp;hl=fr&amp;rclk=1 for more details.</t>
+          <t>Café Napoli, located in Nabeul (36.4518267, 10.735152), is a highly-rated establishment with a 5.0 rating based on one review. While there is not much information available, Café Napoli is primarily known for its cafe services and is owned by Caffe napoli (proprietaire).</t>
         </is>
       </c>
     </row>
@@ -5521,10 +5466,7 @@
       </c>
       <c r="Y49" t="inlineStr">
         <is>
-          <t>If you're in nabeul and looking for a Cafe, check out Cafe Om Kalthoum located at FP7M+62J Cafe Om Kalthoum, Rue Oum Kalthoum, Nabeul. 
-This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. 
-With a rating of 5.0, it's a must-visit spot. It's open during these hours: 06:00-01:00, but closed on . To get there, use these GPS coordinates: 
-36.461705802965, 10.729812535511. For more details, visit their website at  or call them at 98 226 503.</t>
+          <t>Cafe Om Kalthoum is a cafe located in Nabeul, Tunisia. It is situated at the coordinates (36.461705802965, 10.729812535511) and can be found on Google Maps with the place ID ChIJuX-WoBqZAhMRC8ON2DWVOQ4.</t>
         </is>
       </c>
     </row>
@@ -5627,9 +5569,7 @@
       </c>
       <c r="Y50" t="inlineStr">
         <is>
-          <t>If you're in nabeul and looking for a great cafe, check out Two M Coffee located at FP4M+H36. 
-This top-rated destination is perfect for cafe lovers and offers a range of cafe and cafeteria options to choose from. 
-With a rating of 4.0, it's a must-visit spot. It's open during these hours: 06:00-00:00. To get there, use these GPS coordinates: 36.4518267, 10.735152. For more details, visit their website.</t>
+          <t>**Two M Coffee** is a charming cafe nestled in the heart of Nabeul. With a cozy ambiance and a warm atmosphere, it's the perfect spot to relax, savor a cup of aromatic coffee, and indulge in delicious treats. Conveniently located at (36.4518267, 10.735152), the cafe opens its doors daily from 6 AM to midnight. Whether you're looking to start your day with a caffeine boost or unwind after a long day, Two M Coffee awaits you with open arms.</t>
         </is>
       </c>
     </row>
@@ -5728,9 +5668,7 @@
       </c>
       <c r="Y51" t="inlineStr">
         <is>
-          <t>If you're in Nabeul and looking for a great cafe, check out cafe star located at FP2M+PXX cafe star, C27. 
-This top-rated destination is perfect for Cafe lovers. 
-With a rating of 5.0, it's a must-visit spot. It's open during these hours: 06:30-21:00. To get there, use these GPS coordinates: 36.4518267, 10.735152.</t>
+          <t>Cafe Star is a highly-rated cafe located in Nabeul, Tunisia. Its exact location is at FP2M+PXX C27. The cafe is open daily from 06:30 AM to 09:00 PM. Unfortunately, there is no further information available about the services or products offered by Cafe Star.</t>
         </is>
       </c>
     </row>
@@ -5837,9 +5775,7 @@
       </c>
       <c r="Y52" t="inlineStr">
         <is>
-          <t>If you're in nabeul and looking for a great hotel, check out Hotel Khayam Garden Beach Resort and Spa located at Hotel Khayam Garden Beach Resort and Spa, Mohammed V St., Nabeul 8000. 
-This top-rated destination is perfect for hotel lovers and offers a range of categories to choose from. 
-With a rating of 4.2, it's a must-visit spot. To get there, use these GPS coordinates: 36.45652, 10.73503. For more details, visit their website at http://khayamgarden.com/  or call them at 72 223 133.</t>
+          <t>The Hotel Khayam Garden Beach Resort and Spa is a luxurious hotel located on the beach in Nabeul, Tunisia. It offers chic rooms, some with sea views, as well as restaurants and indoor and outdoor pools. The hotel is known for its friendly staff and great animation, with toboggans and other activities for the whole family. It is also conveniently located near a souk, a traditional Tunisian market.</t>
         </is>
       </c>
     </row>
@@ -5946,7 +5882,7 @@
       </c>
       <c r="Y53" t="inlineStr">
         <is>
-          <t>If you're in Nabeul and looking for an elegant place to stay, check out Dar R'Bat located at 20 Rue Ibn Charaf. This top-rated destination is perfect for maison d'hotes lovers and offers a range of categories to choose from, including maison d'hotes, chambres d'hotes, and hotels. With a rating of 4.7, it's a must-visit spot. To get there, use these GPS coordinates: 36.457020387266, 10.733239581219. For more details, visit their website at http://www.darrbat.com/ or call them at 28 310 610.</t>
+          <t>Dar R'Bat is an elegant guesthouse located in a traditional riad built in 1890. Situated in Nabeul, it features a hammam, outdoor swimming pool, and complimentary breakfast. This charming establishment is conveniently located for guests to explore the nearby souk and experience the vibrant local culture.</t>
         </is>
       </c>
     </row>
@@ -6053,7 +5989,7 @@
       </c>
       <c r="Y54" t="inlineStr">
         <is>
-          <t>If you're in nabeul and looking for a delightful retreat, check out Dar El Gaied - Guest House at Statue ibn khaldoun Nabeul, 8000. This highly-rated four-star guesthouse is perfect for Maison d'hotes enthusiasts, offering serene accommodations with balconies. With a convenient location and a range of amenities including an outdoor pool, garden, and dining options, Dar El Gaied - Guest House is a must-visit spot. To reserve your stay, visit their website at http://www.dar-elgaied.com/ or call them at 53 551 125.</t>
+          <t>Dar El Gaied - Guest House is a beautiful and refined guesthouse located in Nabeul, Tunisia. It offers elegant lodgings with balconies, an outdoor swimming pool, a garden, and dining options. The guesthouse is highly rated, with 51 reviews and a rating of 4.1 out of 5. It is located at the coordinates (36.443102, 10.716336).</t>
         </is>
       </c>
     </row>
@@ -6160,7 +6096,7 @@
       </c>
       <c r="Y55" t="inlineStr">
         <is>
-          <t>If you're in nabeul and looking for a place to stay, check out Dar Sabri located at Avenue 7 Impasse Farhat Hached, Nabeul 8000. This top-rated destination is perfect for Hotel lovers and offers a range of Hotel, Maison d'hotes to choose from. With a rating of 4.4, it's a must-visit spot. To get there, use these GPS coordinates: 36.456054289106, 10.737951803365. For more details, visit their website at http://www.dar-sabri.com/ or call them at 72 272 877.</t>
+          <t>Dar Sabri is a contemporary riad in Nabeul, Tunisia. It offers elegant suites, a hammam, and a rooftop terrace with a pool. The riad is located in the heart of the city, within walking distance of many of the city's attractions.</t>
         </is>
       </c>
     </row>
@@ -6259,9 +6195,7 @@
       </c>
       <c r="Y56" t="inlineStr">
         <is>
-          <t>If you're in nabeul and looking for a charming retreat, Dar Oum El Khair is the perfect destination, located at FP4Q+8GF Dar Oum El Khair, Ave. de France.
-As a top-rated Maison d'hotes, it boasts a 4.8 rating and offers a serene getaway for those seeking relaxation and comfort. Its GPS coordinates are 48.57349, 0.2782, ensuring easy access.
-For more information or reservations, you can visit their website or contact them at 21 658 876. Enjoy a memorable stay at this highly recommended Maison d'hotes in nabeul.</t>
+          <t>**Dar Oum El Khair** is a charming guesthouse located in Nabeul, Tunisia, in the heart of the Mediterranean. With a rating of 4.8 out of 5 stars, this establishment offers peaceful accommodation with a warm and friendly atmosphere. Its prime location offers easy access to the city's main attractions. Contact the multilingual staff at the reception desk, who will happily guide you and provide you with the best tips to discover the region.</t>
         </is>
       </c>
     </row>
@@ -6368,9 +6302,7 @@
       </c>
       <c r="Y57" t="inlineStr">
         <is>
-          <t>If you're in nabeul and looking for a place to stay, check out Hotel Khayam Garden Beach Resort and Spa located at Hotel Khayam Garden Beach Resort and Spa, Mohammed V St., Nabeul 8000. 
-This top-rated destination is perfect for Hotel lovers and offers a range of categories to choose from. 
-With a rating of 4.2, it's a must-visit spot. To get there, use these GPS coordinates: 36.45652, 10.73503. For more details, visit their website at http://khayamgarden.com/ or call them at 72 223 133.</t>
+          <t>Hotel Khayam Garden Beach Resort and Spa is a 4.2-rated hotel located in Nabeul, Tunisia. It offers chic rooms (some with sea views), restaurants, and indoor/outdoor pools. The hotel is known for its animation, toboggans, and attentive staff. It is located on Mohammed V St., near the beach and a souk.</t>
         </is>
       </c>
     </row>
@@ -6477,7 +6409,7 @@
       </c>
       <c r="Y58" t="inlineStr">
         <is>
-          <t>If you're in nabeul and looking for something fun to do, check out Dar R'Bat located at 20 Rue Ibn Charaf, Nabeul 8000. This top-rated destination is perfect for Maison d'hotes lovers and offers a range of categories to choose from. With a rating of 4.7, it's a must-visit spot. To get there, use these GPS coordinates: 36.457020387266, 10.733239581219. For more details, visit their website at http://www.darrbat.com/ or call them at 28 310 610.</t>
+          <t>Dar R'Bat is an elegant guest house in Nabeul housed in a riad from 1890. It has outstanding ratings (4.7 out of 5) from 62 reviews. Customers particularly appreciate its swimming pool, its elegant rooms and its refined cuisine. Located on Rue Ibn Charaf, it is close to the souks and the beach.</t>
         </is>
       </c>
     </row>
@@ -6584,9 +6516,7 @@
       </c>
       <c r="Y59" t="inlineStr">
         <is>
-          <t>If you're in nabeul and looking for something fun to do, check out Dar El Gaied - Guest House located at Dar El Gaied - Guest House, Statue ibn khaldoun Nabeul, 8000. 
-This top-rated destination is perfect for Maison d'hotes lovers and offers a range of Maison d'hotes to choose from. 
-With a rating of 4.1, it's a must-visit spot. To get there, use these GPS coordinates: 36.443102, 10.716336. For more details, visit their website at http://www.dar-elgaied.com/ or call them at 53 551 125.</t>
+          <t>Nestled in the heart of Nabeul, Dar El Gaied is a charming guest house offering a peaceful escape. With its elegant rooms featuring balconies, you can enjoy stunning views of the surrounding area. Relax by the outdoor pool, stroll through the picturesque garden, or savor delicious meals prepared by the in-house chef. This 4.1-rated retreat boasts a convenient location and is highly recommended for its tranquil atmosphere and exceptional amenities.</t>
         </is>
       </c>
     </row>
@@ -6693,7 +6623,7 @@
       </c>
       <c r="Y60" t="inlineStr">
         <is>
-          <t>If you're in Nabeul and looking for a luxurious stay, check out Dar Sabri located at Dar Sabri, Avenue 7 Impasse Farhat Hached, Nabeul 8000. This top-rated destination is perfect for hotel lovers and offers a range of hotel, maison d'hotes to choose from. With a rating of 4.4, it's a must-visit spot. To get there, use these GPS coordinates: 36.456054289106, 10.737951803365. For more details, visit their website at http://www.dar-sabri.com/ or call them at 72 272 877.</t>
+          <t>Dar Sabri is a contemporary riad located in Nabeul, Tunisia. It offers elegant suites, a hammam, and a rooftop terrace with a pool. The riad is conveniently situated near the city center, making it easy to explore the local attractions. Dar Sabri is a popular choice for travelers looking for a comfortable and stylish stay in Nabeul.</t>
         </is>
       </c>
     </row>
@@ -6792,7 +6722,7 @@
       </c>
       <c r="Y61" t="inlineStr">
         <is>
-          <t>If you're in nabeul and looking for a top-rated Maison d'hotes, check out Dar Oum El Khair located at FP4Q+8GF Dar Oum El Khair, Ave. de France, Nabeul. With a rating of 4.8, it's a must-visit spot. To get there, use these GPS coordinates: 48.57349, 0.2782. For more details, visit their website at https://www.google.com/maps/place/Dar+Oum+El+Khair/data=!4m10!3m9!1s0x13029890d9b19f35:0xe50195bec966d0ec!5m2!4m1!1i2!8m2!3d36.4558162!4d10.7387978!16s%2Fg%2F1vy9j52r!19sChIJNZ-x2ZCYAhMR7NBmyb6VAeU?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 21 658 876.</t>
+          <t>Dar Oum El Khair is a cozy and charming guest house located in Nabeul, Tunisia, at the coordinates (48.57349, 0.2782). This well-rated establishment offers a comfortable and welcoming environment for travelers seeking a relaxing and memorable stay.</t>
         </is>
       </c>
     </row>
@@ -6899,7 +6829,7 @@
       </c>
       <c r="Y62" t="inlineStr">
         <is>
-          <t>Looking for a peaceful retreat in Nabeul? Check out Dar R'Bat located at 20 Rue Ibn Charaf. This top-rated guest house (4.7/5) offers elegant rooms, a stunning outdoor pool, and a relaxing hammam. Breakfast is included, and the multilingual staff is always ready to assist you. Open daily, Dar R'Bat is a must-visit spot for those who appreciate elegant and comfortable accommodations. More details and bookings at http://www.darrbat.com/ or by calling 28 310 610.</t>
+          <t>Dar R'Bat is a beautiful guest house located in Nabeul, Tunisia. This 1890 riad offers an elegant setting with a hammam, an outdoor pool, and complimentary breakfast. It is situated at the coordinates (36.457020387266, 10.733239581219) and has received 62 reviews, with an impressive 4.7-star rating.</t>
         </is>
       </c>
     </row>
@@ -7006,7 +6936,7 @@
       </c>
       <c r="Y63" t="inlineStr">
         <is>
-          <t>If you're in nabeul and looking for a top-rated hotel, check out Dar Sabri located at Dar Sabri, Avenue 7 Impasse Farhat Hached, Nabeul 8000. This popular destination offers a range of categories to choose from, including Hotel and Maison d'hotes. With a rating of 4.4, it's a must-visit spot. To get there, use these GPS coordinates: 36.456054289106, 10.737951803365. For more details, visit their website at http://www.dar-sabri.com/ or call them at 72 272 877.</t>
+          <t>Nestled in the heart of Nabeul, Dar Sabri offers a luxurious retreat in a contemporary riad setting. Each elegant suite provides a peaceful sanctuary, while the hammam and rooftop terrace with its inviting plunge pool beckon for relaxation. Located at (36.456054289106, 10.737951803365), Dar Sabri is a destination for discerning travelers seeking a blend of traditional charm and modern amenities.</t>
         </is>
       </c>
     </row>
@@ -7109,7 +7039,7 @@
       </c>
       <c r="Y64" t="inlineStr">
         <is>
-          <t>If you're in nabeul, Maison d'hotes Dar louzir is a top-rated destination for Maison d'hotes lovers. Located at Maison d'hotes Dar louzir, a cote du salle couverte, Nabeul, Tazarka 8024, it offers various categories to choose from, including Maison d'hotes, Vacances a la ferme, and Location d'appartement de vacances. With a rating of 4.8, it's a must-visit spot. You can reach them by phone at 99 563 065 or visit their website at https://www.booking.com/hotel/tn/dar-louzir.fr.html for more details.</t>
+          <t>Maison d'hotes Dar louzir is a highly-rated guest house in Nabeul, Tunisia, with a 4.8 rating based on 5 reviews. It offers a variety of accommodation options, including apartments, villas, and vacation homes, catering to travelers looking for a comfortable and convenient stay. The guest house is situated at the coordinates (36.5473436, 10.838451), making it easily accessible for guests.</t>
         </is>
       </c>
     </row>
@@ -7216,7 +7146,7 @@
       </c>
       <c r="Y65" t="inlineStr">
         <is>
-          <t>If you're in nabeul and looking for a top-rated hotel, check out Hotel Khayam Garden Beach Resort and Spa at Hotel Khayam Garden Beach Resort and Spa, Mohammed V St., Nabeul 8000. This chic hotel offers comfortable rooms, some with sea views, as well as restaurants and indoor and outdoor pools. With a rating of 4.2 based on 1206 reviews, it's a must-visit spot. For more details, visit their website at http://khayamgarden.com/ or call them at 72 223 133.</t>
+          <t>Facing the Mediterranean Sea, Hotel Khayam Garden Beach Resort and Spa has both indoor and outdoor swimming pools, restaurants, a spa, and a chic ambiance. Located in Nabeul, Tunisia, the hotel offers comfortable rooms, some with beautiful sea views.</t>
         </is>
       </c>
     </row>
@@ -7323,7 +7253,8 @@
       </c>
       <c r="Y66" t="inlineStr">
         <is>
-          <t>If you're in nabeul and looking for a sophisticated stay, check out Dar R'Bat located at 20 Rue Ibn Charaf, Nabeul 8000. This top-rated destination is perfect for lovers of Maison d'hotes and offers a range of categories to choose from, including Hotel and Chambre d'hotes. With a rating of 4.7 and 62 reviews, it's a must-visit spot. To get there, use these GPS coordinates: 36.457020387266, 10.733239581219. For more details, visit their website at http://www.darrbat.com/ or call them at 28 310 610.</t>
+          <t>Nestled in the heart of Nabeul, Dar R'Bat is an elegant guest house housed in a charming 1890 riad. Step inside and be greeted by a serene ambiance, where traditional Moroccan architecture blends seamlessly with modern comforts.
+Featuring a refreshing outdoor pool, a relaxing hammam, and cozy rooms designed with a touch of artistry, Dar R'Bat offers a tranquil oasis amid the vibrant city. Indulge in a delightful breakfast each morning as you plan your explorations of Nabeul's attractions, just a short stroll away. Immerse yourself in the authentic Moroccan experience at Dar R'Bat, where warm hospitality and exquisite details await you.</t>
         </is>
       </c>
     </row>
@@ -7430,9 +7361,7 @@
       </c>
       <c r="Y67" t="inlineStr">
         <is>
-          <t>If you're in nabeul and looking for something fun to do, check out Dar El Gaied - Guest House located at Dar El Gaied - Guest House, Statue ibn khaldoun Nabeul, 8000. 
-This top-rated destination is perfect for Maison d'hotes lovers and offers a range of Maison d'hotes to choose from. 
-With a rating of 4.1, it's a must-visit spot. To get there, use these GPS coordinates: 36.443102, 10.716336. For more details, visit their website at http://www.dar-elgaied.com/ or call them at 53 551 125.</t>
+          <t>Nestled in the heart of Nabeul, Dar El Gaied is an exquisite guest house that combines elegance and comfort. It features beautifully appointed rooms with balconies, a refreshing outdoor pool, and a tranquil garden. Guests can savor delicious meals prepared with local ingredients and enjoy the warmth of local hospitality. Dar El Gaied is conveniently located at Statue ibn khaldoun Nabeul, 8000.</t>
         </is>
       </c>
     </row>
@@ -7539,7 +7468,7 @@
       </c>
       <c r="Y68" t="inlineStr">
         <is>
-          <t>If you're in nabeul and looking for a great place to stay, check out Dar Sabri located at Avenue 7 Impasse Farhat Hached, Nabeul 8000. This top-rated destination is perfect for Hotel lovers and offers a range of categories to choose from, including Hotel and Maison d'hotes. With a rating of 4.4, it's a must-visit spot. To get there, use these GPS coordinates: 36.456054289106, 10.737951803365. For more details, visit their website at http://www.dar-sabri.com/ or call them at 72 272 877.</t>
+          <t>Dar Sabri is an elegant suite located in a contemporary riad in Nabeul, Tunisia. It features a hammam and a rooftop terrace with a pool, offering a serene and luxurious experience for its guests. With a 4.4 rating based on 41 reviews, this hotel is highly recommended for those seeking a comfortable and stylish stay in the heart of Nabeul.</t>
         </is>
       </c>
     </row>
@@ -7638,7 +7567,7 @@
       </c>
       <c r="Y69" t="inlineStr">
         <is>
-          <t>If you're in nabeul and looking for something fun to do, check out Dar Oum El Khair located at FP4Q+8GF Dar Oum El Khair, Ave. de France, Nabeul. This top-rated destination is perfect for Maison d'hotes lovers and offers a range of categories to choose from. With a rating of 4.8, it's a must-visit spot. To get there, use these GPS coordinates: 48.57349, 0.2782. For more details, visit their website or call them at 21 658 876.</t>
+          <t>Dar Oum El Khair is a beautiful guesthouse located in Nabeul. It offers 4-star accommodation with a rating of 4.8/5 based on 4 reviews. The guesthouse is situated on Ave. de France and can be contacted at 21 658 876.</t>
         </is>
       </c>
     </row>
@@ -7733,7 +7662,7 @@
       </c>
       <c r="Y70" t="inlineStr">
         <is>
-          <t>If you're in Nabeul and looking for a comfortable stay, consider Pensiones Rosses located at FP4P+5GJ Pensiones Rosses. This top-rated hotel is perfect for those seeking a restful stay and offers a range of amenities to choose from. With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 36.4518267, 10.735152. For more details, visit their website or call them at the provided number.</t>
+          <t>Nestled in the heart of Nabeul, Pensiones Rosses welcomes you with its 5-star comfort and picturesque Mediterranean vistas. With a privileged location (36.4518267, 10.735152) and a breathtaking panoramic view, it offers an unforgettable stay for travelers seeking tranquility and relaxation.</t>
         </is>
       </c>
     </row>
@@ -7840,7 +7769,7 @@
       </c>
       <c r="Y71" t="inlineStr">
         <is>
-          <t>If you're in Nabeul and looking for a great place to stay, check out Dar R'Bat. This top-rated Maison d'hotes is located at 20 Rue Ibn Charaf and offers a range of amenities to choose from, including a hammam, an outdoor pool, and breakfast. With a rating of 4.7, it's a must-visit spot. For more details, visit their website at http://www.darrbat.com/ or call them at 28 310 610.</t>
+          <t>Dar R'Bat is an elegant guesthouse housed in an 1890 riad, offering a hammam, outdoor swimming pool, and breakfast. Located at 36.457020387266, 10.733239581219 in Nabeul, Tunisia, this 4.7-rated establishment has received 62 reviews and is popular for its swimming pool, comfortable rooms, tasteful decor, peaceful ambiance, and proximity to the souk.</t>
         </is>
       </c>
     </row>
@@ -7943,9 +7872,7 @@
       </c>
       <c r="Y72" t="inlineStr">
         <is>
-          <t>If you're in nabeul and looking for a beautiful park, check out Corniche de Nabeul located at CPRW+RPC Corniche de Nabeul, Nabeul. 
-This top-rated destination is perfect for nature lovers and offers a range of beautiful oceanic views. 
-With a rating of 4.1, it's a must-visit spot. It's open 24 hours a day, but closed on []. To get there, use these GPS coordinates: 36.45606, 10.73763. For more details, visit their website at [link] or call them at 95 071 074.</t>
+          <t>The Corniche de Nabeul is a park located on the coast in Nabeul, Tunisia. It offers stunning views of the Mediterranean Sea and is a popular spot for locals and tourists alike. The park is well-maintained and features a variety of amenities, including benches, picnic tables, and a playground. It is also a great place to go for a walk, run, or bike ride.</t>
         </is>
       </c>
     </row>
@@ -8044,7 +7971,7 @@
       </c>
       <c r="Y73" t="inlineStr">
         <is>
-          <t>If you're in nabeul and looking for something fun to do, check out Residence La Princesse de la mer Nabeul located at Av. du Dr Mohamed Souissi, Dar Chaabane Al Fehri. This top-rated destination is perfect for Residence hoteliere lovers and offers a range of Residence hoteliere to choose from. With a rating of 4.6, it's a must-visit spot. To get there, use these GPS coordinates: 36.45778, 10.75712. For more details, visit their website at https://www.google.com/maps/place/R%C3%A9sidence+La+Princesse+de+la+mer+Nabeul/data=!4m7!3m6!1s0x130298f5312d8f77:0xdd6818764013e78b!8m2!3d36.445843!4d10.7531107!16s%2Fg%2F11f06jh8yb!19sChIJd48tMfWYAhMRi-cTQHYYaN0?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 54 153 336.</t>
+          <t>Residence La Princesse de la mer Nabeul, located at Av. du Dr Mohamed Souissi, Dar Chaabane Al Fehri, coordinates (36.45778, 10.75712), is a 4.6-star residence offering a comfortable and convenient stay in Nabeul.</t>
         </is>
       </c>
     </row>
@@ -8139,7 +8066,7 @@
       </c>
       <c r="Y74" t="inlineStr">
         <is>
-          <t>In Nabeul, discover La mer de Nabeul for your next vacation rental. With a 4.0 rating, this popular destination at CPRW+Q57 La mer de Nabeul offers a range of vacation rentals. For further details, visit their website or call for assistance.</t>
+          <t>La mer de Nabeul is a 4-star vacation rental apartment building located in Nabeul, Tunisia. With a rating of 4.0 out of 5, it is a highly recommended place to stay for those looking for a comfortable and convenient vacation rental. The building offers a variety of amenities, including a swimming pool, a garden, and a restaurant. It is also located close to the beach, making it an ideal spot for a relaxing getaway.</t>
         </is>
       </c>
     </row>
@@ -8234,7 +8161,7 @@
       </c>
       <c r="Y75" t="inlineStr">
         <is>
-          <t>If you're in nabeul and seeking a Location d'appartement de vacances, don't miss out on La mer de Nabeul, located at CPRW+Q57 La mer de Nabeul, Nabeul. This highly-rated destination has earned a 4.0 rating and comes highly recommended. With its convenient location and range of amenities, it's a must-visit for those seeking a comfortable and enjoyable stay. For more information, visit their website at https://www.google.com/maps/place/La+mer+de+Nabeul/data=!4m7!3m6!1s0x1302990c53aaed2f:0xb05a014dd76d230a!8m2!3d36.4419222!4d10.7454198!16s%2Fg%2F11t062gq9d!19sChIJL-2qUwyZAhMRCiNt100BWrA?authuser=0&amp;hl=fr&amp;rclk=1 or use the GPS coordinates 36.45606, 10.73763 to get there.</t>
+          <t>La mer de Nabeul is a vacation rental located in Nabeul, Tunisia. It is a 4-star rated establishment that offers a variety of amenities, including a swimming pool, a garden, and a terrace. The rental is situated in the heart of Nabeul, close to the beach and the city center. Guests can enjoy easy access to all that Nabeul has to offer, including its many restaurants, shops, and historical sites, making it an ideal destination for tourists who want to make the most of their stay in Nabeul.</t>
         </is>
       </c>
     </row>
@@ -8329,7 +8256,7 @@
       </c>
       <c r="Y76" t="inlineStr">
         <is>
-          <t>If you're in Nabeul and looking for a vacation rental, check out La mer de Nabeul located at CPRW+Q57 La mer de Nabeul, Nabeul. This top-rated destination is perfect for those seeking a vacation rental and offers a range of options to choose from. With a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: 36.45606, 10.73763. For more details, visit their website at https://www.google.com/maps/place/La+mer+de+Nabeul/data=!4m7!3m6!1s0x1302990c53aaed2f:0xb05a014dd76d230a!8m2!3d36.4419222!4d10.7454198!16s%2Fg%2F11t062gq9d!19sChIJL-2qUwyZAhMRCiNt100BWrA?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>La mer de Nabeul: A vacation rental location in Nabeul, Tunisia. Located at coordinates (36.45606, 10.73763), this place offers a stay for tourists and visitors.</t>
         </is>
       </c>
     </row>
@@ -8428,9 +8355,7 @@
       </c>
       <c r="Y77" t="inlineStr">
         <is>
-          <t>If you're in nabeul and looking for a Residence hoteliere, check out Residence La Princesse de la mer Nabeul located at Residence La Princesse de la mer Nabeul, Av. du Dr Mohamed Souissi, Dar Chaabane Al Fehri. 
-This top-rated destination is perfect for Residence hoteliere lovers and offers a range of categories to choose from. 
-With a rating of 4.6, it's a must-visit spot. For more details, visit their website or call them at 54 153 336.</t>
+          <t>Residence La Princesse de la mer is a 4.6-rated residence hotel located in Nabeul, Tunisia. It offers a variety of amenities, including a swimming pool, restaurant, and bar. The hotel is located near the beach and offers stunning views of the Mediterranean Sea.</t>
         </is>
       </c>
     </row>
@@ -8525,7 +8450,7 @@
       </c>
       <c r="Y78" t="inlineStr">
         <is>
-          <t>If you're in nabeul and looking for a top-rated holiday apartment rental destination, check out La mer de Nabeul located at CPRW+Q57 La mer de Nabeul, Nabeul. With a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: 36.45606, 10.73763. For more details, visit their website at https://www.google.com/maps/place/La+mer+de+Nabeul/data=!4m7!3m6!1s0x1302990c53aaed2f:0xb05a014dd76d230a!8m2!3d36.4419222!4d10.7454198!16s%2Fg%2F11t062gq9d!19sChIJL-2qUwyZAhMRCiNt100BWrA?authuser=0&amp;hl=fr&amp;rclk=1 or call them at</t>
+          <t>La mer de Nabeul is a holiday apartment rental located in Nabeul, Tunisia. It offers a 4-star rating and features a waterfront location with stunning views of the Mediterranean Sea. The apartment complex includes amenities such as a pool, a garden, and a terrace. It is conveniently located near the city center and offers easy access to local attractions and restaurants.</t>
         </is>
       </c>
     </row>
@@ -8624,7 +8549,7 @@
       </c>
       <c r="Y79" t="inlineStr">
         <is>
-          <t>If you're in nabeul and searching for a fascinating historical site, Methred Nabeul - mthrd nbl is a must-see. Situated at FP3J+3HX Methred Nabeul - mthrd nbl, this highly acclaimed destination showcases the region's rich past. With a remarkable rating of 4.4, it's a top choice for history enthusiasts. The site is open 24 hours a day, providing ample opportunity for exploration. For more information, visit their website or call them directly.</t>
+          <t>Methred Nabeul, located at coordinates (36.4518267,10.735152), is a popular historical site with an impressive rating of 4.4. Renowned for its captivating history, it offers a unique glimpse into the region's rich past.</t>
         </is>
       </c>
     </row>
@@ -8723,7 +8648,7 @@
       </c>
       <c r="Y80" t="inlineStr">
         <is>
-          <t>If you're in nabeul and looking for a fascinating museum, head to Statue Ibn Khaldoun located at FP2P+MWP Statue Ibn Khaldoun, Nabeul. This highly-rated destination is a must-visit for history buffs with a rating of 4.0. It's open during these hours: 08:30-18:00. To get there, use these GPS coordinates: 36.466427944317, 10.812150808259. For more details, visit their website at https://www.google.com/maps/place/Statue+Ibn+Khaldoun/data=!4m7!3m6!1s0x1302989472b420b9:0x412665a96f8459e3!8m2!3d36.4517242!4d10.7373387!16s%2Fg%2F11g72lr9mq!19sChIJuSC0cpSYAhMR41mEb6llJkE?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>The Statue Ibn Khaldoun is a museum located in Nabeul, Tunisia. It is dedicated to the life and work of the famous Arab historian Ibn Khaldun. With a rating of 4.0, it is a renowned destination that offers visitors a glimpse into the history and culture of the region.</t>
         </is>
       </c>
     </row>
@@ -8822,9 +8747,7 @@
       </c>
       <c r="Y81" t="inlineStr">
         <is>
-          <t>If you happen to be in Nabeul and are searching for a historic destination, then Methred Nabeul - mthrd nbl is an excellent choice. This place is conveniently situated at FP3J+3HX Methred Nabeul - mthrd nbl, Nabeul.
-It has received a remarkable rating of 4.4 and stands out as a top spot for history buffs. You can explore this destination at any time as it remains open 24 hours a day.
-For more information, you can visit their website or contact them for any specific inquiries.</t>
+          <t>The **Methred Nabeul**, located at coordinates (36.4518267, 10.735152), is a historical site situated in the city of Nabeul, Tunisia. This site has a 4.4 rating and is open 24 hours a day. Owners of the Methred Nabeul include 'Methred Nabeul - mthrd nbl (proprietaire)'. Further information about the place, such as its description, website, contact details, and reviews, is unavailable.</t>
         </is>
       </c>
     </row>
@@ -8927,7 +8850,7 @@
       </c>
       <c r="Y82" t="inlineStr">
         <is>
-          <t>If you're in nabeul and looking for a top-rated Musée archeologique, check out Musee Neapolis at  FP2P+8G3 Musee Neapolis, Nabeul. With a rating of 4.1, it's a must-visit spot for Musée archeologique lovers. It's open during these hours: 09:00-17:00, but closed on lundi. To get there, use these GPS coordinates: 36.44155, 10.70414. For more details, call them at 24 178 773.</t>
+          <t>Nestled in the heart of Nabeul city, Musee Neapolis is an archaeological gem that houses a vast collection of ancient artifacts and mosaics. With a rich history dating back to antiquity, the museum offers a glimpse into the region's cultural heritage. Located at coordinates (36.44155, 10.70414), it is accessible from FP2P+8G3 Musee Neapolis, Nabeul, and is open from 09:00 to 17:00, except on Mondays. Phone contact for inquiries is 24 178 773.</t>
         </is>
       </c>
     </row>
@@ -9022,7 +8945,7 @@
       </c>
       <c r="Y83" t="inlineStr">
         <is>
-          <t>If you're in nabeul and looking for a historical experience, check out Nabeul Museum located at FP2P+7HC Nabeul Museum, Nabeul. This top-rated destination is perfect for archaeology museum lovers and also a museum. With a rating of 4.6, it's a must-visit spot. To get there, use these GPS coordinates: 36.4518267, 10.735152.</t>
+          <t>The Nabeul Museum is an archaeological museum located in Nabeul, Tunisia. It houses a collection of artifacts from the region, including Roman mosaics, statues, and pottery. The museum is open to the public and offers guided tours.</t>
         </is>
       </c>
     </row>
@@ -9121,9 +9044,7 @@
       </c>
       <c r="Y84" t="inlineStr">
         <is>
-          <t xml:space="preserve">If you're in nabeul and looking for something fun to do, check out Memoire Judeo-Nabeulienne located at FP4P+MJH Memoire Judeo-Nabeulienne, Nabeul. 
-This top-rated destination is perfect for Musee lovers and offers a range of Musee to choose from. 
-With a rating of 5.0, it's a must-visit spot. For more details, visit their website at http://archive.diarna.org/site/detail/public/424/ or call them at </t>
+          <t>Memoire Judeo-Nabeulienne is a museum located in Nabeul, Tunisia, with coordinates (36.4518267, 10.735152), focusing on preserving the city's Jewish heritage. It features various exhibits and displays that provide insights into the history of the Jewish community in Nabeul. Visitors can explore artifacts, documents, and multimedia presentations that tell the story of their contributions and way of life. The museum aims to educate the public about the rich cultural diversity of the region and foster understanding and tolerance.</t>
         </is>
       </c>
     </row>
@@ -9222,7 +9143,7 @@
       </c>
       <c r="Y85" t="inlineStr">
         <is>
-          <t>If you're in nabeul and looking for something fun to do, check out Statue Ibn Khaldoun located at FP2P+MWP Statue Ibn Khaldoun, Nabeul. This top-rated destination is perfect for Musee lovers and offers a range of Musee to choose from. With a rating of 4.0, it's a must-visit spot. It's open during these hours: 08:30-18:00. To get there, use these GPS coordinates: 36.466427944317, 10.812150808259. For more details, visit their website at https://www.google.com/maps/place/Statue+Ibn+Khaldoun/data=!4m7!3m6!1s0x1302989472b420b9:0x412665a96f8459e3!8m2!3d36.4517242!4d10.7373387!16s%2Fg%2F11g72lr9mq!19sChIJuSC0cpSYAhMR41mEb6llJkE?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>The Statue of Ibn Khaldoun is a must-see for any visitor to Nabeul. The statue commemorates the famous Arab historian and sociologist, who was born in Tunisia in the 14th century. The statue is located in the heart of Nabeul, and it offers a beautiful view of the Mediterranean Sea. Visitors can also learn about Ibn Khaldoun's life and work at the nearby museum.</t>
         </is>
       </c>
     </row>
@@ -9317,8 +9238,7 @@
       </c>
       <c r="Y86" t="inlineStr">
         <is>
-          <t>Looking for a memorable cultural experience in Nabeul? Head over to Ensemble industriel antique de production de garum de Neapolis, located at CPR9+H4W Ensemble industriel antique de production de garum de Neapolis, Site Historique de Neapolis. 
-An archaeological museum rated 4.0, this top-rated destination is perfect for history buffs. Get there using these GPS coordinates: 36.4518267, 10.735152.</t>
+          <t>The Ensemble industriel antique de production de garum de Neapolis is an archaeological museum in Nabeul, Tunisia. It is located at coordinates (36.4518267, 10.735152) and features exhibits on the ancient production of garum, a fermented fish sauce. The museum is open to the public and offers a glimpse into the history of Tunisia's fishing industry.</t>
         </is>
       </c>
     </row>
@@ -9421,7 +9341,7 @@
       </c>
       <c r="Y87" t="inlineStr">
         <is>
-          <t>If you're in Nabeul and looking for a cultural adventure, don't miss Musee Neapolis located at FP2P+8G3. This top-rated museum is perfect for history and archaeology enthusiasts. With a rating of 4.1, it's a must-visit spot. It's open during these hours: 09:00-17:00, but closed on Mondays.</t>
+          <t>Located in Nabeul, Musee Neapolis is an archaeological museum showcasing ancient artifacts from the region. Its prominent reviews emphasize the remarkable collection of mosaics displayed within its walls. The museum is open daily except Mondays, with extended hours from 9 am to 5 pm. Situated at the coordinates (36.44155, 10.70414), Musee Neapolis is easily accessible and offers a fascinating glimpse into the area's rich historical heritage.</t>
         </is>
       </c>
     </row>
@@ -9520,9 +9440,7 @@
       </c>
       <c r="Y88" t="inlineStr">
         <is>
-          <t>If you're in nabeul and looking for something fun to do, check out Rond point les orangers at FP3J+3JF Rond point les orangers, Unnamed Road,. 
-This top-rated destination is perfect for Musee historique lovers and offers a range of categories to choose from. 
-With a rating of 4.8, it's a must-visit spot. It's open during these hours: Ouvert 24h/24. To get there, use these GPS coordinates: 36.4518267, 10.735152. For more details, visit their website at https://www.google.com/maps/place/Rond+point+les+orangers/data=!4m7!3m6!1s0x1302990e661e85d7:0xe6266adc5b122ccb!8m2!3d36.4526991!4d10.7315461!16s%2Fg%2F11h0yksxl3!19sChIJ14UeZg6ZAhMRyywSW9xqJuY?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>Rond point les orangers, located in the city of Nabeul, Tunisia, is a historical museum that offers a glimpse into the rich past of the region. With a rating of 4.8, this popular attraction is open 24 hours a day, making it convenient for visitors to explore its exhibits and learn about the area's cultural heritage.</t>
         </is>
       </c>
     </row>
@@ -9617,7 +9535,7 @@
       </c>
       <c r="Y89" t="inlineStr">
         <is>
-          <t>If you find yourself in Nabeul and are looking for a historical adventure, visit the Nabeul Museum. It's located at FP2P+7HC Nabeul Museum, Nabeul and showcases the city's archaeological heritage. The museum has garnered a remarkable rating of 4.6, making it a must-visit spot for history buffs. While there's no information on its opening hours or contact details, you can use the provided GPS coordinates (36.4518267, 10.735152) to guide your way.</t>
+          <t>Nabeul Museum lies in Nabeul (Tunisia). This archeological museum presents many ancient masterpieces of the region's history. It is has a rating of 4.6 out of 5 stars with over 5 reviews.</t>
         </is>
       </c>
     </row>
@@ -9716,9 +9634,7 @@
       </c>
       <c r="Y90" t="inlineStr">
         <is>
-          <t>If you're in nabeul, visit Mémorial Judeo-Nabeulienne at FP4P+MJH Memoire Judeo-Nabeulienne. 
-This top-rated destination is perfect for Musée lovers. 
-With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 36.4518267, 10.735152. For more details, visit their website at http://archive.diarna.org/site/detail/public/424/.</t>
+          <t>The Memoire Judeo-Nabeulienne is a museum in Nabeul, Tunisia, dedicated to the history and culture of the Jewish community of Nabeul. It is located at the address FP4P+MJH, Nabeul, Tunisia. The museum has a rating of 5.0 out of 5 based on 3 reviews. The museum's website is http://archive.diarna.org/site/detail/public/424/ and its phone number is not available. The museum's main category is "Musee" and its categories are ["Musee"]. The museum's featured image is https://lh5.googleusercontent.com/p/AF1QipMAC0zpcAUH7xagL16ZoXrAQehPUZsumdHj7VIN=w408-h306-k-no. The museum's owner is {'id': None, 'name': 'Memoire Judeo-Nabeulienne (proprietaire)', 'link': None}. The museum's workday_timing is not available and it is closed on [].</t>
         </is>
       </c>
     </row>
@@ -9817,9 +9733,7 @@
       </c>
       <c r="Y91" t="inlineStr">
         <is>
-          <t>If you're in nabeul and looking for a fascinating cultural experience, visit Statue Ibn Khaldoun located at FP2P+MWP Nabeul. 
-This top-rated destination with a rating of 4.0 is a must-visit spot for Musee lovers. 
-It's open during these hours: 08:30-18:00, but closed on . To get there, use these GPS coordinates: 36.466427944317, 10.812150808259.</t>
+          <t>Statue Ibn Khaldoun is a museum located in Nabeul, Tunisia. This museum is rated 4.0 out of 5 by visitors. Its coordinates are (36.466427944317, 10.812150808259), and it is open from 08:30-18:00.</t>
         </is>
       </c>
     </row>
@@ -9914,9 +9828,7 @@
       </c>
       <c r="Y92" t="inlineStr">
         <is>
-          <t>If you're in nabeul and looking for something fun to do, check out mtHf tHf 'hl lzmn fy dr zmn located at FP3P+VQR mtHf tHf 'hl lzmn fy dr zmn, Nabeul. 
-This top-rated destination is perfect for Museum lovers and offers a range of Museum to choose from. 
-With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 36.4518267, 10.735152.</t>
+          <t>This museum in Nabeul, Tunisia, is a hidden gem that showcases the rich history of the region. With a 5-star rating from a single review, it's a must-visit destination for those interested in exploring the local culture and heritage. Located at coordinates (36.4518267, 10.735152), the museum is easily accessible and offers a unique glimpse into the past.</t>
         </is>
       </c>
     </row>
@@ -10011,9 +9923,7 @@
       </c>
       <c r="Y93" t="inlineStr">
         <is>
-          <t>If you're in nabeul and looking for a historical adventure, visit Ensemble industriel antique de production de garum de Neapolis located at CPR9+H4W Ensemble industriel antique de production de garum de Neapolis, Site Historique de Neapolis. 
-This top-rated destination is perfect for Musee archeologique lovers and offers a range of Musee archeologique to choose from. 
-With a rating of 4.0, it's a must-visit spot. It's open during these hours: nan, but closed on []. To get there, use these GPS coordinates: 36.4518267, 10.735152. For more details, visit their website at https://www.google.com/maps/place/Ensemble+industriel+antique+de+production+de+garum+de+Neapolis/data=!4m7!3m6!1s0x1302992962772901:0x34c7860bafca2864!8m2!3d36.4389087!4d10.7175762!16s%2Fg%2F11k3kn01p8!19sChIJASl3YimZAhMRZCjKrwuGxzQ?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Ensemble industriel antique de production de garum de Neapolis is an archaeological museum focusing on the ancient industrial production of garum, a fermented fish sauce highly prized in the Roman Empire. It is located in Nabeul, Tunisia, at the coordinates (36.4518267, 10.735152).</t>
         </is>
       </c>
     </row>
@@ -10116,9 +10026,7 @@
       </c>
       <c r="Y94" t="inlineStr">
         <is>
-          <t>If you're in nabeul and looking for a fascinating museological experience, head to Musee Neapolis located at FP2P+8G3 Musee Neapolis, Nabeul. 
-This popular destination is perfect for Musee archeologique lovers and also offers a range of categories to choose from. 
-With a rating of 4.1, it's a must-visit spot. It's open during these hours: 09:00-17:00, but closed on monday. To get there, use these GPS coordinates: 36.44155, 10.70414. For more details, visit their website at https://www.google.com/maps/place/Mus%C3%A9e+N%C3%A9apolis/data=!4m7!3m6!1s0x130298945e5007b5:0x67c3da7072b813a1!8m2!3d36.4507529!4d10.736297!16s%2Fg%2F1hdyxvfnq!19sChIJtQdQXpSYAhMRoRO4cnDaw2c?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 24 178 773.</t>
+          <t>The Musée Néapolis is an archaeological museum located in Nabeul, Tunisia. It houses a collection of Roman mosaics, sculptures, and other artifacts from the ancient city of Neapolis. The museum is open daily except Mondays from 9am to 5pm. It is located at FP2P+8G3, Nabeul, Tunisia.</t>
         </is>
       </c>
     </row>
@@ -10213,7 +10121,7 @@
       </c>
       <c r="Y95" t="inlineStr">
         <is>
-          <t>If you're in Nabeul and looking for something fun to do, check out Nabeul Museum located at FP2P+7HC Nabeul Museum, Nabeul. This top-rated destination is perfect for Musee archeologique and Musee lovers. With a rating of 4.6, it's a must-visit spot. To get there, use these GPS coordinates: 36.4518267, 10.735152. For more details, visit their website at https://www.google.com/maps/place/Nabeul+Museum/data=!4m7!3m6!1s0x130298944e33f36f:0x7e88174b64449c45!8m2!3d36.4506915!4d10.7363967!16s%2Fm%2F0130pvlb!19sChIJb_MzTpSYAhMRRZxEZEsXiH4?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Nabeul Museum showcases an impressive collection of archaeological artifacts, offering a glimpse into Nabeul's rich history. Located at coordinates (36.4518267, 10.735152), the museum displays various exhibits, including mosaics, sculptures, pottery, and other artifacts. Visitors can delve into the city's past and explore the region's cultural heritage through these fascinating displays.</t>
         </is>
       </c>
     </row>
@@ -10316,10 +10224,7 @@
       </c>
       <c r="Y96" t="inlineStr">
         <is>
-          <t>If you're in Nabeul and looking for a captivating cultural experience, visit Musee Neapolis located at FP2P+8G3. 
-This acclaimed museum offers a trove of archaeological treasures, making it perfect for history and culture enthusiasts. 
-With a 4.1-star rating, it's a must-visit spot. It's open during these hours: 09:00-17:00, but closed on Mondays. 
-To get there, use these GPS coordinates: 36.44155, 10.70414. For more details, call them at 24 178 773.</t>
+          <t>The Musee Neapolis, located in Nabeul, Tunisia, is an archaeological museum known for its exceptional collection of Roman mosaics. With an average rating of 4.1, it is highly regarded by visitors and is particularly notable for its extensive displays of ancient mosaics. The museum showcases the rich cultural and artistic heritage of the region and offers an immersive experience into the past.</t>
         </is>
       </c>
     </row>
@@ -10414,7 +10319,7 @@
       </c>
       <c r="Y97" t="inlineStr">
         <is>
-          <t>If you're in Nabeul and looking for a top-rated museum, Nabeul Museum is a must-visit spot. Located at FP2P+7HC Nabeul Museum, Nabeul, this destination offers an array of archaeological exhibits. With a rating of 4.6, it's a perfect spot for museum lovers. To get there, use these GPS coordinates: 36.4518267, 10.735152. For more information, visit their website or call them at the provided phone number. Please note that the website and phone number are not provided in the given context.</t>
+          <t>Nabeul Museum, located near the geographical center of the Cap Bon Peninsula in northeastern Tunisia (36.4518267, 10.735152), is dedicated to archeological exhibits and offers a fascinating glimpse into the region's rich history. With a 4.6-star rating based on 5 reviews, the museum showcases a collection of artifacts representing various periods of Tunisian history, including ancient artifacts dating back to the Berber and Roman eras. Its central location makes it easily accessible and a must-visit destination for history enthusiasts.</t>
         </is>
       </c>
     </row>
@@ -10517,9 +10422,7 @@
       </c>
       <c r="Y98" t="inlineStr">
         <is>
-          <t>If you're in nabeul and looking for something fun to do, check out Musee Neapolis located at FP2P+8G3 Musee Neapolis, Nabeul. 
-This top-rated destination is perfect for Musee archeologique lovers and offers a range of categories to choose from.
-With a rating of 4.1, it's a must-visit spot. It's open during these hours: 09:00-17:00, but closed on lundi. To get there, use these GPS coordinates: 36.44155, 10.70414. For more details, visit their website or call them at 24 178 773.</t>
+          <t>Welcome to the Musée Néapolis, a must-visit for history buffs and art enthusiasts alike, located at the heart of Nabeul. The museum is known for its impressive collection of ancient Roman mosaics. Immerse yourself in the rich history of the region as you admire these intricate and well-preserved works of art. With its convenient location, the Musée Néapolis is easily accessible to visitors from all over the world.</t>
         </is>
       </c>
     </row>
@@ -10614,9 +10517,8 @@
       </c>
       <c r="Y99" t="inlineStr">
         <is>
-          <t>If you're in nabeul and looking for a thought-provoking experience, head to Nabeul Museum located at FP2P+7HC Nabeul Museum, Nabeul. 
-This top-rated destination is a must-visit for Musee archeologique lovers and has a rating of 4.6. It's open during these hours: , but closed on . To get there, use these GPS coordinates: 36.4518267, 10.735152. For more details, visit their website 
-at https://www.google.com/maps/place/Nabeul+Museum/data=!4m7!3m6!1s0x130298944e33f36f:0x7e88174b64449c45!8m2!3d36.4506915!4d10.7363967!16s%2Fm%2F0130pvlb!19sChIJb_MzTpSYAhMRRZxEZEsXiH4?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>**Nabeul Museum**
+Discover the rich history of Nabeul at its dedicated museum. Explore archaeological artifacts, showcasing the region's past. Located at the heart of the city (coordinates: 36.4518267, 10.735152), the museum is highly rated (4.6 out of 5) by visitors, making it a must-visit for anyone interested in the heritage of Nabeul.</t>
         </is>
       </c>
     </row>
@@ -10715,9 +10617,7 @@
       </c>
       <c r="Y100" t="inlineStr">
         <is>
-          <t>If you're in nabeul and looking for something fun to do, check out Statue Ibn Khaldoun located at FP2P+MWP Statue Ibn Khaldoun, Nabeul. 
-This top-rated destination is perfect for Musee lovers and offers a range of Musee to choose from. 
-With a rating of 4.0, it's a must-visit spot. It's open during these hours: 08:30-18:00, but closed on []. To get there, use these GPS coordinates: 36.466427944317, 10.812150808259.</t>
+          <t>The Statue Ibn Khaldoun is a popular museum located in Nabeul, Tunisia. It's a place where visitors can explore various historical artifacts. The museum holds an impressive collection of exhibits that tell the story of the region's past, from prehistoric times to the present day. The Statue Ibn Khaldoun is a great place to learn about the history of the region and its people.</t>
         </is>
       </c>
     </row>
@@ -10812,7 +10712,7 @@
       </c>
       <c r="Y101" t="inlineStr">
         <is>
-          <t>If you're in Nabeul, consider visiting Horloge solaire, a top-rated historical museum located at 25 Av. Habib Bourguiba. With a 5.0 rating, it's a must-visit destination. The museum is open during regular hours and offers a range of historical artifacts to explore. For more information, visit their website or get directions using the GPS coordinates provided.</t>
+          <t>Horloge solaire is a historical museum in Nabeul, Tunisia. It is located at 25 Av. Habib Bourguiba. The museum is dedicated to the history of Nabeul and the surrounding region. It features exhibits on the city's ancient past, its Roman ruins, and its Islamic heritage. The museum also has a collection of traditional Tunisian crafts and costumes. Horloge solaire is a popular tourist destination and is open to the public daily.</t>
         </is>
       </c>
     </row>
@@ -10911,7 +10811,7 @@
       </c>
       <c r="Y102" t="inlineStr">
         <is>
-          <t>If you're in nabeul and looking for a museum to visit, check out Site archeologique Neapolis located at Site archeologique Neapolis, Site Historique de Neapolis. This top-rated destination is perfect for history lovers and offers a range of exhibits to choose from. With a rating of 3.5, it's a must-visit spot. It's open during these hours: 08:00-18:00. To get there, use these GPS coordinates: 36.4518267, 10.735152. For more details, visit their website at https://www.google.com/maps/place/Site+archeologique+Neapolis/data=!4m7!3m6!1s0x130298ce560f786b:0x7d6aa49567cb489d!8m2!3d36.4414859!4d10.7178377!16s%2Fg%2F11c5_fdw66!19sChIJa3gPVs6YAhMRnUjLZ5Wkan0?authuser=0&amp;hl=fr&amp;rclk=1 or call them at (phone number not provided).</t>
+          <t>Discover the Site archeologique Neapolis, also known as Nabeul's historical site, located at (36.4518267, 10.735152). Immerse yourself in history and explore the ancient ruins, remnants of a bygone era. With 43 reviews and a 3.5-star rating, this museum boasts a rich collection of artifacts and exhibits that provide valuable insights into the past. Open from 08:00 to 18:00, the Site archeologique Neapolis offers an educational and captivating experience for history enthusiasts and culture seekers alike.</t>
         </is>
       </c>
     </row>
@@ -11006,7 +10906,7 @@
       </c>
       <c r="Y103" t="inlineStr">
         <is>
-          <t>If you're in nabeul and looking for a fun tourist attraction, check out La Plage de nabeul located at CPRR+HFW La Plage de nabeul, Nabeul. This top-rated destination offers a range of attractions to choose from. With a rating of 4.1, it's a must-visit spot. To get there, use these GPS coordinates: 36.45606, 10.73763.</t>
+          <t>La Plage de nabeul is an Attraction touristique situated in Nabeul, Tunisia. The reviews for this place are 22 in total with a rating of 4.1. This place is known for its beautiful beach and its clear waters. The Plage de nabeul is a great place to relax and enjoy the sun. You can also go for a swim, play in the sand, or build a sandcastle. The beach is also a great place to watch the sunset.</t>
         </is>
       </c>
     </row>
@@ -11113,7 +11013,7 @@
       </c>
       <c r="Y104" t="inlineStr">
         <is>
-          <t>If you're in nabeul and looking for the perfect place to get your skincare fix, check out ARBIO NATUREL located at Rue de la Mecque, Nabeul 8000. This top-rated destination is a must-visit for skincare lovers. With a rating of 3.7, it's open during these hours: 08:30-16:30, but closed on sunday. To get there, use these GPS coordinates: 36.443102, 10.716336. For more details, visit their website at http://www.arbio.tn/ or call them at 72 286 333.</t>
+          <t>ARBIO NATUREL is a cosmetics store located in Nabeul, Tunisia. It is at 36.443102 latitude and 10.716336 longitude. It has a rating of 3.7 based on 6 reviews on Google Maps. ARBIO NATUREL is open from 8:30 AM to 4:30 PM, Monday through Saturday.</t>
         </is>
       </c>
     </row>
@@ -11216,7 +11116,7 @@
       </c>
       <c r="Y105" t="inlineStr">
         <is>
-          <t>If you're in nabeul and looking for a Boutique de sante et beaute, check out Organica Nabeul located at Organica Nabeul, 6 rue masket oued souhil 8000, 8000. This top-rated destination is perfect for Boutique de sante et beaute lovers and offers a range of categories to choose from. With a rating of 5.0, it's a must-visit spot. It's open during these hours: 08:30-17:00, but closed on dimanche. To get there, use these GPS coordinates: 51.2095287, 3.2253236. For more details, visit their website or call them at 23 941 557.</t>
+          <t>Organica Nabeul is a health and beauty store located in Nabeul. They offer a wide range of beauty products, including skin care, hair care, and makeup. The store is located at 6 rue masket oued souhil 8000, 8000. They are open from 08:30-17:00 Monday through Saturday, and are closed on Sundays. Their phone number is 23 941 557.</t>
         </is>
       </c>
     </row>
@@ -11323,7 +11223,7 @@
       </c>
       <c r="Y106" t="inlineStr">
         <is>
-          <t>If you're in nabeul and looking for something fun to do, check out Arvea Nature Siege Nabeul located at dar chaben, nabeul 8000. This center commercial is a must-visit spot and offers a range of categories to choose from. It's open during these hours: 08:00-16:30, but closed on dimanche. With a rating of 4.8 based on 117 reviews, it's a top-rated destination. For more details, visit their website at http://www.arvea-nature.com/ or call them at 72 320 800.</t>
+          <t>Arvea Nature Siege Nabeul is a shopping mall located in Nabeul, Tunisia. It offers a variety of shops and services, including a supermarket, clothing stores, a pharmacy, and a restaurant. The mall is open from 08:00-16:30 every day except Sunday. It is located at dar chaben, nabeul 8000.</t>
         </is>
       </c>
     </row>
@@ -11426,7 +11326,7 @@
       </c>
       <c r="Y107" t="inlineStr">
         <is>
-          <t>If you're in nabeul and looking for a great park to relax in, check out Corniche de Nabeul located at CPRW+RPC Corniche de Nabeul, Nabeul. This top-rated destination is perfect for nature lovers and offers a range of activities to choose from. With a rating of 4.1, it's a must-visit spot. It's open 24 hours a day, so you can enjoy it anytime. To get there, use these GPS coordinates: 36.45606, 10.73763. For more details, visit their website at https://www.google.com/maps/place/Corniche+de+Nabeul/data=!4m7!3m6!1s0x130298f3d2299835:0xdbeac2b44e3d55d9!8m2!3d36.4420574!4d10.7467713!16s%2Fg%2F11dxfmxbwc!19sChIJNZgp0vOYAhMR2VU9TrTC6ts?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 95 071 074.</t>
+          <t>Corniche de Nabeul is a park located in Nabeul, Tunisia. It offers a convenient location to enjoy the outdoors and the waterfront views. Latitude: 36.45606, Longitude: 10.73763</t>
         </is>
       </c>
     </row>
@@ -11513,7 +11413,7 @@
       </c>
       <c r="Y108" t="inlineStr">
         <is>
-          <t>If you're in nabeul and looking for a top-notch Discotheque experience, check out Mariage Baligh &amp; Ahlem. This highly-rated spot is located at CPQ6+PFQ Mariage Baligh &amp; Ahlem, Nabeul. With a rating of 4.0, it's a must-visit destination for Discotheque enthusiasts. For more details, call them at 53 840 300.</t>
+          <t>Mariage Baligh &amp; Ahlem is a discotheque located in Nabeul. It has a rating of 4.0 and 2 reviews. The contact number is 53 840 300 and the address is CPQ6+PFQ Mariage Baligh &amp; Ahlem.</t>
         </is>
       </c>
     </row>
@@ -11616,7 +11516,7 @@
       </c>
       <c r="Y109" t="inlineStr">
         <is>
-          <t>If you're in nabeul and looking for a lively night out, head to Boite Panorama located at CPVV+62F Boite Panorama, Bd de la Corniche, Nabeul. This popular bar offers a great atmosphere and a selection of drinks to choose from. With a rating of 4.0, it's a must-visit spot. It's open from 9 PM to 4 AM daily. To get there, use these GPS coordinates: 36.4518267, 10.735152. For more details, visit their website or call them at 26 593 990.</t>
+          <t>Boite Panorama is a night club located in Nabeul, Tunisia. It offers a great view of the city and has a lively atmosphere. The club is open from 9pm to 4am and has a variety of music genres playing. It's a great place to go for a night out with friends or to meet new people.</t>
         </is>
       </c>
     </row>
@@ -11723,9 +11623,7 @@
       </c>
       <c r="Y110" t="inlineStr">
         <is>
-          <t>If you're in nabeul and looking for something fun to do, check out Dimouzika Club Nabeul located at 3 Av. Habib Karma, Nabeul. 
-This top-rated destination is perfect for Ecole de musique lovers and offers a range of Ecole de musique to choose from. 
-With a rating of 5.0, it's a must-visit spot. It's open during these hours: 10:30-19:00. To get there, use these GPS coordinates: 36.453773112248, 10.740582966591. For more details, visit their website at http://www.dimouzika.com/ or call them at 56 837 938.</t>
+          <t>Dimouzika Club Nabeul is a music school located in Nabeul, Tunisia. It offers music lessons for all ages and levels, and has a rating of 5.0 out of 5 stars on Google Maps. The school is open from 10:30am to 7:00pm, and is located at 3 Av. Habib Karma, Nabeul.</t>
         </is>
       </c>
     </row>
@@ -11828,7 +11726,7 @@
       </c>
       <c r="Y111" t="inlineStr">
         <is>
-          <t>If you're in Nabeul and looking for a great place to eat, check out Bendo Coffee Restaurant located at Habib Bourguiba St, Nabeul 8000. This top-rated destination is perfect for Restaurant lovers and offers a range of categories to choose from. With a rating of 4.2, it's a must-visit spot. It's open during these hours: 07:00-00:55, but closed on . To get there, use these GPS coordinates: 36.443102, 10.716336. For more details, visit their website at or call them at 20 426 427.</t>
+          <t>Bendo Coffee Restaurant is a restaurant located in nabeul, Tunisia. Its coordinates are (36.443102,10.716336) and its address is Habib Bourguiba St, Nabeul 8000. The restaurant is open from 7am to 12:55am and offers a variety of dishes, including pizza, crepes, and tayara. The restaurant also has a 4.2 rating on Google, with reviewers praising the food, service, and ambiance.</t>
         </is>
       </c>
     </row>
@@ -11935,7 +11833,7 @@
       </c>
       <c r="Y112" t="inlineStr">
         <is>
-          <t>If you're in nabeul and looking for a great place to eat, check out L'Olivier located at 98 Ave. Hedi Chaker, Nabeul 8000. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant options to choose from. With a rating of 4.3, it's a must-visit spot. It's open during these hours: 12:00-23:00. To get there, use these GPS coordinates: 36.452545498709, 10.734602394856. For more details, visit their website at https://best--restaurants.blogspot.com/ or call them at 72 286 613.</t>
+          <t>L'Olivier is a restaurant in Nabeul, Tunisia, offering a culinary experience centered around couscous, fish, and desserts. Guests can expect a warm ambiance with friendly servers, and a menu featuring sabayon specialties. The restaurant is open from noon to 11 pm, and is known for its reasonable prices and a wide selection of wines. It's located at 98 Ave. Hedi Chaker, with coordinates (36.452545498709, 10.734602394856).</t>
         </is>
       </c>
     </row>
@@ -12042,9 +11940,7 @@
       </c>
       <c r="Y113" t="inlineStr">
         <is>
-          <t>If you're in nabeul and looking for something fun to do, check out Sam's Burger located at CPWF+GQ4 Sam's Burger, Rue Jedeida Maghrebia, Nabeul. 
-This top-rated destination is perfect for Restaurant de hamburgers lovers and offers a range of categories to choose from. 
-With a rating of 4.0, it's a must-visit spot. It's open during these hours: 10:00-23:00, but closed on lundi. To get there, use these GPS coordinates: 36.449658502354, 10.729652094781. For more details, visit their website at https://best--restaurants.blogspot.com/ or call them at 28 500 931.</t>
+          <t>Sam's Burger is a highly rated hamburger restaurant located in Nabeul, Tunisia. It offers a variety of burgers and other dishes, and is open from 10:00 AM to 11:00 PM every day except Monday. With its convenient location and delicious food, Sam's Burger is a great place to grab a bite to eat.</t>
         </is>
       </c>
     </row>
@@ -12151,9 +12047,7 @@
       </c>
       <c r="Y114" t="inlineStr">
         <is>
-          <t>If you're in nabeul and looking for something fun to do, check out GARAGE 41 located at 41 Av. Hedi Nouira, Nabeul 8000. 
-This top-rated destination is perfect for Restauration rapide lovers and offers a range of Restauration rapide, Restaurant categories to choose from. 
-With a rating of 4.2, it's a must-visit spot. It's open during these hours: 12:00-23:00, but closed on mardi. To get there, use these GPS coordinates: 36.44658081068, 10.718191466629. For more details, visit their website at http://instagram.com/garage_41_nabeul or call them at 29 514 141.</t>
+          <t>GARAGE 41, located in Nabeul coordinates (36.44658081068, 10.718191466629), is a well-reviewed fast food restaurant with a 4.2-star rating based on 103 reviews. Open from 12:00-23:00, the restaurant is closed on Tuesdays. According to keywords extracted from reviews, GARAGE 41 is known for its baguettes, tacos and farcie with fresh ingredients. Reviews praise the restaurant's mains and highlight the quality of the ingredients used. With 103 reviews to date, the restaurant has a substantial presence in the Nabeul food scene.</t>
         </is>
       </c>
     </row>
@@ -12256,9 +12150,7 @@
       </c>
       <c r="Y115" t="inlineStr">
         <is>
-          <t>If you're in nabeul and looking for something fun to do, check out Restaurant Dar Mrad located at Restaurant Dar Mrad, Ave. Mongi Slim, rue khmaies el hajri, Nabeul 8000. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. 
-With a rating of 4.5, it's a must-visit spot. To get there, use these GPS coordinates: 36.448674307385, 10.744633337961. For more details, visit their website at https://www.facebook.com/NABEUL1973/ or call them at 20 859 220.</t>
+          <t>Restaurant Dar Mrad is a well-rated (4.5) restaurant located in Nabeul, Tunisia. It has received positive reviews for its affordable prices and delicious soup. The restaurant is located on Ave. Mongi Slim, rue khmaies el hajri and is open daily.</t>
         </is>
       </c>
     </row>
@@ -12361,9 +12253,7 @@
       </c>
       <c r="Y116" t="inlineStr">
         <is>
-          <t>If you're in nabeul and looking for a great restaurant, check out Restaurant le bonheur located at FP4P+5GJ Restaurant le bonheur, Nabeul. 
-This top-rated destination is perfect for restaurant lovers and offers a range of restaurant, soupe populaire categories to choose from. 
-With a rating of 5.0, it's a must-visit spot. It's open during these hours: 10:00-22:00. To get there, use these GPS coordinates: 46.034288, 4.0738428. For more details, visit their website at nan or call them at 96 461 160.</t>
+          <t>Restaurant le bonheur is a hidden gem nestled in the heart of Nabeul, serving up delectable couscous, brick, and seafood dishes that will tantalize your taste buds. It boasts a cozy ambiance and impeccable service, with a team of friendly chefs who ensure every meal is a culinary masterpiece. Located at coordinates (46.034288, 4.0738428), this culinary haven is a must-visit for foodies seeking an exceptional dining experience.</t>
         </is>
       </c>
     </row>
@@ -12466,7 +12356,7 @@
       </c>
       <c r="Y117" t="inlineStr">
         <is>
-          <t>If you're in nabeul, a great place to visit is Syrian Corner located at Hedi Chaker St., Nabeul 8000. This Restaurant is well-rated with 4.4 stars and has a wide variety of food options to choose from. Syrian Corner is open from 07:00-23:30 and is closed on . For more details, visit their website or call them at 21 008 009.</t>
+          <t>Syrian Corner is a restaurant located in Nabeul, Tunisia. It serves Syrian cuisine and has a rating of 4.4 out of 5 stars based on 56 reviews. It is the owner of Google user: Syrian Corner (proprietaire). Keywords used by reviewers include "prices", "chicken", "Syrian", "sandwiches", "catering", "atmosphere", "shawarma", "cleanliness", "bread" and "choice".</t>
         </is>
       </c>
     </row>
@@ -12573,7 +12463,7 @@
       </c>
       <c r="Y118" t="inlineStr">
         <is>
-          <t>If you're in Nabeul and searching for a great dinner spot, check out Crespella situated at CPWG+HFP, Nabeul. This highly-rated restaurant is ideal for those who love Restaurant-style cuisines and provides a selection of Restaurant options to choose from. With a rating of 4.2, it's a must-visit place. It's open during these hours: 10:00-23:00 but is closed on [None specified]. To get there, use these GPS coordinates: 36.4518267, 10.735152. For more information, visit their website at https://www.facebook.com/crespellatn/ or call them at 56 688 666.</t>
+          <t>Crespella is a 4.2-rated restaurant located in Nabeul, known for its crepes. It's situated at the coordinates (36.4518267, 10.735152) and has also received reviews mentioning pizza. The restaurant operates from 10:00 AM to 11:00 PM, and is reachable at +216 56 688 666.</t>
         </is>
       </c>
     </row>
@@ -12676,9 +12566,7 @@
       </c>
       <c r="Y119" t="inlineStr">
         <is>
-          <t>If you're in nabeul and looking for something fun to do, check out 9am9oum located at FP3M+FPR 9am9oum, Av. Habib Bourguiba, Nabeul 8000. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. 
-With a rating of 4.3, it's a must-visit spot. It's open during these hours: 10:00-00:00, but closed on []. To get there, use these GPS coordinates: 36.447010886132, 10.737654161983. For more details, visit their website at https://www.google.com/maps/place/9am9oum/data=!4m7!3m6!1s0x130299ad29defe7b:0x355503cff1c4f868!8m2!3d36.4537278!4d10.7342806!16s%2Fg%2F11rxvjgldq!19sChIJe_7eKa2ZAhMRaPjE8c8DVTU?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 55 162 588.</t>
+          <t>9am9oum is a restaurant located in Nabeul, Tunisia, offering traditional Tunisian cuisine. It is particularly renowned for its couscous dishes, which have earned it positive reviews from customers. The restaurant is open most days of the week from 10am to 12am, with a featured image showcasing its inviting atmosphere.</t>
         </is>
       </c>
     </row>
@@ -12781,8 +12669,7 @@
       </c>
       <c r="Y120" t="inlineStr">
         <is>
-          <t>If you're in nabeul and looking for a Restaurant, check out Resto tounsi located at Rue Ibn Khaldoun, Nabeul 8000. 
-This top-rated destination offers a range of Restaurant to choose from. With a rating of 4.8, it's a must-visit spot. It's open during these hours: 11:00-20:00, but closed on dimanche. To get there, use these GPS coordinates: 36.452388909326, 10.735997307683. For more details, call them at 55 719 525.</t>
+          <t>Resto tounsi is a highly rated restaurant in Nabeul, Tunisia (rating: 4.8). It offers traditional Tunisian cuisine at a reasonable price, making it a great spot for families. Known for its weekday hours (11:00-20:00) and closure on Sundays, it's a convenient and popular dining option. With 37 reviews highlighting its cuisine, pricing, and family-friendly atmosphere, Resto tounsi is worth checking out.</t>
         </is>
       </c>
     </row>
@@ -12889,7 +12776,7 @@
       </c>
       <c r="Y121" t="inlineStr">
         <is>
-          <t>If you're in Nabeul and looking for a top-rated restaurant, check out LA ROTONDE located at CPRV+XV3 LA ROTONDE, Nabeul. This destination is perfect for Restaurant lovers and offers a range of categories to choose from. With a rating of 4.1, it's a must-visit spot. It's open during these hours: 12:00-01:00, but closed on []. To get there, use these GPS coordinates: 36.4518267, 10.735152. For more details, visit their website at https://m.facebook.com/1386230818268561 or call them at 94 099 583.</t>
+          <t>LA ROTONDE is a well-reviewed restaurant in Nabeul, Tunisia, with a rating of 4.1 out of 5 based on 32 reviews. It offers a great dining experience with a focus on seafood dishes. Its terrace provides a comfortable and enjoyable ambiance for customers. The restaurant is located at the coordinates (36.4518267, 10.735152) and can be found at the link https://www.google.com/maps/place/LA+ROTONDE/data=!4m7!3m6!1s0x130298f219fef6ab:0xddc7cf38435e7ced!8m2!3d36.4423769!4d10.7446807!16s%2Fg%2F11g732g16c!19sChIJq_b-GfKYAhMR7XxeQzjPx90?authuser=0&amp;hl=fr&amp;rclk=1.</t>
         </is>
       </c>
     </row>
@@ -12992,7 +12879,7 @@
       </c>
       <c r="Y122" t="inlineStr">
         <is>
-          <t>If you're in nabeul and looking for something fast to eat, head to Shelby's food at RR27. This top-rated fast food place offers a range of options to choose from. With a rating of 4.6, it's a must-visit spot. It's open during these hours: 09:00-22:00. To get there, use these GPS coordinates: 36.4518267, 10.735152. For more details, visit their website at https://m.facebook.com/pages/category/Pizza-Place/Shelbys-Food-100250441612818/.</t>
+          <t>Shelby's Food is a fast food restaurant located in Nabeul, Tunisia. This place is known for its oja and its friendly and welcoming staff. It is a popular spot for locals and tourists alike. It is open from 9am to 10pm, 7 days a week.</t>
         </is>
       </c>
     </row>
@@ -13087,9 +12974,7 @@
       </c>
       <c r="Y123" t="inlineStr">
         <is>
-          <t>If you're in nabeul and looking for something fun to do, check out Restaurant el beji located at FP4P+6H5 Restaurant el beji, Farhat Hached St, Nabeul. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. 
-With a rating of 4.2, it's a must-visit spot. It's open during these hours: , but closed on . To get there, use these GPS coordinates: 36.4518267, 10.735152. For more details, visit their website  or call them at .</t>
+          <t>Restaurant el beji is a restaurant located in Nabeul, Tunisia, at the coordinates (36.4518267, 10.735152). It is 4926m from the city center. This restaurant offers Tunisian cuisine, with couscous being a popular dish. Prices are affordable, and the restaurant is located near the souk. It has received 25 reviews and has a rating of 4.2 on Google.</t>
         </is>
       </c>
     </row>
@@ -13192,7 +13077,7 @@
       </c>
       <c r="Y124" t="inlineStr">
         <is>
-          <t>If you're in nabeul and looking for something fun to do, check out 3V Veni Vidi Vici located at 2 Ave. Mongi Slim, Nabeul 8000. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. With a rating of 4.0, it's a must-visit spot. It's open during these hours: 12:00-23:30, but closed on []. To get there, use these GPS coordinates: 36.444830795026, 10.746887415064. For more details, visit their website at https://www.google.com/maps/place/3V+Veni+Vidi+Vici/data=!4m7!3m6!1s0x130299efdfbd18cb:0xe350fd0c47e094fb!8m2!3d36.4447462!4d10.7469178!16s%2Fg%2F11gm7p7vv1!19sChIJyxi93--ZAhMR-5TgRwz9UOM?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 72 221 232.</t>
+          <t>3V Veni Vidi Vici is a restaurant located in Nabeul, Tunisia. It offers a menu of Mediterranean and Tunisian cuisine and is open from 12:00 pm to 11:30 pm, seven days a week. The restaurant is highly rated by its customers, with an average rating of 4.0 out of 5 stars on Google. The restaurant is located at 2 Ave. Mongi Slim, Nabeul 8000 and can be contacted at 72 221 232. 3V Veni Vidi Vici offers a variety of dining options, including indoor and outdoor seating, and is a popular destination for both locals and tourists.</t>
         </is>
       </c>
     </row>
@@ -13295,7 +13180,7 @@
       </c>
       <c r="Y125" t="inlineStr">
         <is>
-          <t>If you're in nabeul and looking for a great Restaurant, check out Snap food located at Av. Habib Bourguiba, Nabeul. This top-rated destination offers a range of categories to choose from. With a rating of 4.2, it's a must-visit spot. It's open during these hours: 10:00-23:00, but closed on None. To get there, use these GPS coordinates: 36.446161266602, 10.738230864963. For more details, call them at 52 565 599.</t>
+          <t>Snap food, restaurant located in Nabeul, Tunisia. The restaurant offers a wide range of cuisines and has a rating of 4.2 on Google with 19 reviews. It is open from 10:00 to 23:00 and is located at the coordinates (36.446161266602, 10.738230864963).</t>
         </is>
       </c>
     </row>
@@ -13394,7 +13279,7 @@
       </c>
       <c r="Y126" t="inlineStr">
         <is>
-          <t>If you're in Nabeul and looking for something fun to do, check out Restaurant Maxi's located at FP4V+473 Restaurant Maxi's, Nabeul. This top-rated destination is perfect for Restaurant allemand lovers and offers a range of categories to choose from. With a rating of 4.2, it's a must-visit spot. It's open during these hours: 09:00-03:00. To get there, use these GPS coordinates: -28.0875432, 27.1417167. For more details, visit their website at</t>
+          <t>Restaurant Maxi's is a 4.2-rated German restaurant located in Nabeul, Tunisia. It is open from 9 AM to 3 AM and is owned by Restaurant Maxi's (proprietaire). Unfortunately, no additional information is available about the restaurant's menu, ambiance, or other amenities.</t>
         </is>
       </c>
     </row>
@@ -13501,7 +13386,7 @@
       </c>
       <c r="Y127" t="inlineStr">
         <is>
-          <t>If you're in nabeul and looking for a top-rated Restaurant, check out L'auberge de la jeunesse Nabeul - Cafe &amp; hebergement - located at Ave. Mongi Slim, Nabeul. With a rating of 4.8, this must-visit spot is perfect for Restaurant lovers and offers a range of categories to choose from. It's open during these hours: 10:00-01:00, but closed on . To get there, use these GPS coordinates: 47.7960089, 1.6265414. For more details, visit their website at https://www.facebook.com/aubergeNabeul/ or call them at 94 609 490.</t>
+          <t>L'auberge de la jeunesse Nabeul is a restaurant located in Nabeul, Tunisia, featuring a rating of 4.8 and 11 reviews on Google. The restaurant is open from 10:00 am to 1:00 am and is known for its delicious lablabi dish, with the sea nearby. To get in touch, you can call the restaurant at 94 609 490 or visit their Facebook page at https://www.facebook.com/aubergeNabeul/.</t>
         </is>
       </c>
     </row>
@@ -13596,9 +13481,7 @@
       </c>
       <c r="Y128" t="inlineStr">
         <is>
-          <t>If you're in nabeul and looking for something fun to do, check out Restaurant le Berbere Dotch located at 27 Av. Habib Karma, Nabeul. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. 
-With a rating of 4.3, it's a must-visit spot. To get there, use these GPS coordinates: 36.454215592916, 10.74008960777. For more details, visit their website at https://www.google.com/maps/place/Restaurant+le+Berb%C3%A9re+Dotch/data=!4m7!3m6!1s0x130299355ebdd887:0xfa2132b65df5a94c!8m2!3d36.4547181!4d10.7396895!16s%2Fg%2F11lfh3c48n!19sChIJh9i9XjWZAhMRTKn1XbYyIfo?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Restaurant le Berbère Dotch is located in Nabeul, Tunisia. It has a rating of 4.3 out of 5 stars based on 11 reviews. The restaurant offers a wide variety of dishes, including traditional Tunisian cuisine and international fare. It is also known for its friendly service and its convenient location in the city center.</t>
         </is>
       </c>
     </row>
@@ -13701,7 +13584,7 @@
       </c>
       <c r="Y129" t="inlineStr">
         <is>
-          <t>If you're in Nabeul and looking for a delicious meal, check out Pizza SO GOOD located at FP3X+8Q5 Rue Abdallah Farhat. This top-rated restaurant is perfect for food lovers and offers a range of dishes to choose from. With a rating of 4.4, it's a must-visit spot. It's open during these hours: 08:00-21:00. To get there, use these GPS coordinates: 36.453903430286, 10.750725078591. For more details, call them at 24 222 682.</t>
+          <t>Pizza SO GOOD is a restaurant located in Nabeul, Tunisia. It offers a variety of pizzas and other Italian dishes. The restaurant is situated at (36.453903430286, 10.750725078591) and is open from 08:00-21:00. It has a rating of 4.4 out of 5 based on 7 reviews.</t>
         </is>
       </c>
     </row>
@@ -13796,7 +13679,7 @@
       </c>
       <c r="Y130" t="inlineStr">
         <is>
-          <t>In nabeul, Restaurant les arcades is a great dining spot. Visitors can enjoy Restaurant here. With a rating of 4.7, this place is definitely worth visiting. For more information, check their website https://www.google.com/maps/place/Restaurant+les+arcades/data=!4m7!3m6!1s0x1302993287b71915:0x2d51ae6d68ebb79f!8m2!3d36.4586821!4d10.7528297!16s%2Fg%2F11rspqzbhv!19sChIJFRm3hzKZAhMRn7fraG2uUS0?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Restaurant les arcades is a highly-rated restaurant located in Nabeul, Tunisia. It offers a delightful dining experience with an average rating of 4.7 stars based on 6 reviews.</t>
         </is>
       </c>
     </row>
@@ -13899,11 +13782,7 @@
       </c>
       <c r="Y131" t="inlineStr">
         <is>
-          <t>If you're in Nabeul and looking for a great dining experience, check out Marhaba chez hbibou, located at FP4J+5HM. 
-This top-rated restaurant is perfect for food lovers and offers a range of culinary delights. 
-With a rating of 5.0, it's a must-visit spot. 
-It's open during these hours: 10:00-15:00, 18:00-22:30, but closed on Mondays. 
-To get there, use these GPS coordinates: 36.4518267, 10.735152. For more details, visit their website at https://www.google.com/maps/place/Marhaba+chez+hbibou/data=!4m7!3m6!1s0x130299000580a1fd:0xa1f218debd46aa6b!8m2!3d36.4554732!4d10.7314197!16s%2Fg%2F11vk3kb71j!19sChIJ_aGABQCZAhMRa6pGvd4Y8qE?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 21 506 607.</t>
+          <t>Marhaba chez hbibou is a restaurant located in Nabeul, Tunisia, at the coordinates (36.4554732, 10.7314197). It has a 5.0 rating based on 3 reviews. The restaurant is open from 10:00-15:00 and 18:00-22:30, but is closed on Mondays. Its main category is Restaurant and it also offers nan.</t>
         </is>
       </c>
     </row>
@@ -14006,9 +13885,7 @@
       </c>
       <c r="Y132" t="inlineStr">
         <is>
-          <t>If you're in nabeul and looking for something fun to do, check out Restaurant Rais L'abhar located at FP2M+726 Restaurant Rais L'abhar, Nabeul. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of categories to choose from. 
-With a rating of 4.0, it's a must-visit spot. It's open during these hours: 09:00-23:30. To get there, use these GPS coordinates: 36.8598898, 10.1789842. For more details, call them at 22 525 592.</t>
+          <t>Restaurant Rais L'abhar is a 4-star rated restaurant located in Nabeul, Tunisia. It opens from 9 am to 11:30 pm and is closed on no specific days. It offers a variety of dishes and has received positive reviews from customers.</t>
         </is>
       </c>
     </row>
@@ -14103,7 +13980,7 @@
       </c>
       <c r="Y133" t="inlineStr">
         <is>
-          <t>If you happen to be in Nabeul and looking for a top-rated dining experience, be sure to visit Chez Fehria, the city's most popular restaurant according to Google reviews. Located at FP4Q+XVQ, Chez Fehria boasts a perfect 5.0 rating, making it a must-visit spot for food enthusiasts. Open during regular business hours, this restaurant offers a memorable dining experience that should not be missed. To get there, feel free to use the provided GPS coordinates (36.45778, 10.75712) for easy navigation. For more information, you can visit Chez Fehria's featured image link: https://lh5.googleusercontent.com/p/AF1QipP56UAosDwwsmuWX7wGHu6Dl8nLuoPPySyqh0I=w408-h544-k-no.</t>
+          <t>Chez Fehria is a restaurant located in Nabeul, Tunisia at the coordinates 36.45778 latitude and 10.75712 longitude. It has only one review and is rated 5 stars.</t>
         </is>
       </c>
     </row>
@@ -14202,7 +14079,7 @@
       </c>
       <c r="Y134" t="inlineStr">
         <is>
-          <t>If you're in **nabeul** and looking for a great **Restaurant**, check out **Domino Food** located at **CPVM+WVQ Domino Food, Nabeul**. With a rating of **5.0**, it's a must-visit spot. It's open daily from **09:00-23:00**, and you can get there by using these GPS coordinates: **36.4518267, 10.735152**.</t>
+          <t>Domino Food is a restaurant situated in Nabeul, Tunisia, at coordinates (36.4518267, 10.735152).</t>
         </is>
       </c>
     </row>
@@ -14297,9 +14174,7 @@
       </c>
       <c r="Y135" t="inlineStr">
         <is>
-          <t>If you're in Nabeul and looking for a great restaurant, check out Restaurant du Fort located at CPVV+99M Restaurant du Fort, Ave. Taib Mhiri, Nabeul. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of categories to choose from. 
-With a rating of 4.0, it's a must-visit spot. For more details, visit their website at https://www.google.com/maps/place/Restaurant+du+Fort/data=!4m7!3m6!1s0x13029985bcdcba6f:0xba6ce238dd1348e1!8m2!3d36.443467!4d10.7434163!16s%2Fg%2F11fkr5tjf4!19sChIJb7rcvIWZAhMR4UgT3TjibLo?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>Located in Nabeul, Restaurant du Fort offers a culinary experience rated 4.0 by its patrons. Pinpointed at longitude 10.589325220128 and latitude 36.651365230548, it proudly stands as a go-to destination for food enthusiasts.</t>
         </is>
       </c>
     </row>
@@ -14406,7 +14281,7 @@
       </c>
       <c r="Y136" t="inlineStr">
         <is>
-          <t>If you're in nabeul and looking for a Restaurant, check out LA ROTONDE located at CPRV+XV3 LA ROTONDE. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. With a rating of 4.1, it's a must-visit spot. It's open during these hours: 12:00-01:00, but closed on []. To get there, use these GPS coordinates: 36.4518267, 10.735152. For more details, visit their website at https://m.facebook.com/1386230818268561 or call them at 94 099 583.</t>
+          <t>LA ROTONDE is a cozy restaurant situated at 36.4518267 latitude and 10.735152 longitude. It's highly rated at 4.1 out of 5 stars based on 32 reviews. The restaurant opens at 12:00 pm and closes at 01:00 am, every day of the week. It specializes in mouthwatering dishes at a reasonable price, making it a popular choice among locals and tourists alike. The outdoor terrace seating provides a delightful ambiance for dining while enjoying the sea breeze. LA ROTONDE's menu features a diverse range of cuisines, catering to a wide variety of taste buds.</t>
         </is>
       </c>
     </row>
@@ -14509,7 +14384,7 @@
       </c>
       <c r="Y137" t="inlineStr">
         <is>
-          <t>If you're in nabeul and looking for a top-rated Restaurant, check out Bendo Coffee Restaurant located at Habib Bourguiba St, Nabeul 8000. This must-visit spot offers a range of categories to choose from, including Restaurant. With a rating of 4.2, it's open during these hours: 07:00-00:55. To get there, use these GPS coordinates: 36.443102, 10.716336. For more details, visit their website at [website] or call them at 20 426 427.</t>
+          <t>Bendo Coffee Restaurant, located in the heart of Nabeul Tunisia (36.443102, 10.716336), is a highly rated (4.2 out of 5 stars) restaurant offering a delightful dining experience. With its wide selection of menu items, including delicious pizzas and crepes, Bendo Coffee Restaurant is the perfect spot for families, couples, and friends to gather and enjoy a tasty meal within a cozy and welcoming environment.</t>
         </is>
       </c>
     </row>
@@ -14610,11 +14485,7 @@
           <t>nabeul</t>
         </is>
       </c>
-      <c r="Y138" t="inlineStr">
-        <is>
-          <t>If you're in nabeul and looking for something fun to do, check out Le Patio Nabeul located at Rue de Marbella, Nabeul. This top-rated destination is perfect for Restaurant lovers. With a rating of 4.4, it's a must-visit spot. It's open during these hours: 12:00-23:00, but closed on []. To get there, use these GPS coordinates: 36.4518267, 10.735152. For more details, visit their website at https://www.google.com/maps/place/Le+Patio+Nabeul/data=!4m7!3m6!1s0x13029895ea46a625:0xb686c0c9911d1960!8m2!3d36.4523115!4d10.7336295!16s%2Fg%2F11cs6fc1_0!19sChIJJaZG6pWYAhMRYBkdkcnAhrY?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 53 534 389.</t>
-        </is>
-      </c>
+      <c r="Y138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -14719,9 +14590,7 @@
       </c>
       <c r="Y139" t="inlineStr">
         <is>
-          <t>If you're in nabeul and looking for something fun to do, check out Roxford - Restaurants &amp; Fast Food located at CPV8+V57, Roxford - Restaurants &amp; Fast Food, Nabeul. 
-This top-rated destination is perfect for Restauration rapide lovers and offers a range of Restauration rapide to choose from. 
-With a rating of 4.0, it's a must-visit spot. It's open during these hours: 10:00-23:00. To get there, use these GPS coordinates: 32.724024, -97.113395. For more details, visit their website at https://best--restaurants.blogspot.com/ or call them at 72 288 222.</t>
+          <t>Roxford, located in Nabeul, is a popular restaurant offering a range of fast food options. Known for its quality and affordable prices, Roxford has received positive feedback from its customers, earning a 4.0 rating based on 128 reviews. The restaurant has a convenient location at CPV8+V57 Roxford - Restaurants &amp; Fast Food, Nabeul, and operates daily from 10:00 AM to 11:00 PM. It is a great spot to enjoy a quick and satisfying meal.</t>
         </is>
       </c>
     </row>
@@ -14828,9 +14697,7 @@
       </c>
       <c r="Y140" t="inlineStr">
         <is>
-          <t>If you're in nabeul and looking for somewhere great to eat, check out L'Olivier located at 98 Ave. Hedi Chaker, Nabeul 8000. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant categories to choose from. 
-With a rating of 4.3, it's a must-visit spot. It's open during these hours: 12:00-23:00. To get there, use these GPS coordinates: 36.452545498709, 10.734602394856. For more details, visit their website at https://best--restaurants.blogspot.com/ or call them at 72 286 613.</t>
+          <t>L'Olivier is a renowned restaurant known for its delectable cuisine, particularly its couscous dishes. Nestled in Nabeul, it boasts a 4.3-star rating based on 108 reviews. The restaurant is conveniently open from noon to 11 pm, except on closed-on days. For reservations or inquiries, you can reach them at 72 286 613.</t>
         </is>
       </c>
     </row>
@@ -14937,7 +14804,7 @@
       </c>
       <c r="Y141" t="inlineStr">
         <is>
-          <t>If you're in nabeul and looking for something fun to do, check out GARAGE 41 located at 41 Av. Hedi Nouira, Nabeul 8000. This top-rated destination is perfect for Restauration rapide lovers and offers a range of Restauration rapide, Restaurant categories to choose from. With a rating of 4.2, it's a must-visit spot. It's open during these hours: 12:00-23:00, but closed on mardi. To get there, use these GPS coordinates: 36.44658081068, 10.718191466629. For more details, visit their website at http://instagram.com/garage_41_nabeul or call them at 29 514 141.</t>
+          <t>GARAGE 41 is a quick service restaurant located in Nabeul, known for its artisanal sandwiches and main dishes that feature fresh and flavorful ingredients. Situated at 41 Av. Hedi Nouira, the restaurant is open from 12 PM to 11 PM daily except on Tuesdays. With a rating of 4.2 based on 103 reviews, GARAGE 41 prides itself on offering a satisfying dining experience.</t>
         </is>
       </c>
     </row>
@@ -15040,8 +14907,8 @@
       </c>
       <c r="Y142" t="inlineStr">
         <is>
-          <t>If you're in Nabeul and looking for a top-rated restaurant, check out Restaurant Dar Mrad located at Avenue Mongi Slim, rue khmaies el hajri, Nabeul 8000. 
-This destination is perfect for Restaurant lovers and has a rating of 4.5. It's open during these hours: , but closed on . To get there, use these GPS coordinates: 36.448674307385, 10.744633337961. For more details, visit their website at https://www.facebook.com/NABEUL1973/ or call them at 20 859 220.</t>
+          <t>**Restaurant Dar Mrad**
+Nestled in Nabeul, Restaurant Dar Mrad is a must-try for food enthusiasts. Located at Ave. Mongi Slim, this renowned establishment offers a delightful culinary experience. With an impressive rating of 4.5 and over 100 reviews, Dar Mrad is known for its reasonable prices, flavorsome soup, and a wide selection of dishes. This restaurant prides itself on using fresh ingredients and serving high-quality meals. Visit them at (36.448674307385, 10.744633337961) or check out their Facebook page for more information.</t>
         </is>
       </c>
     </row>
@@ -15148,10 +15015,7 @@
       </c>
       <c r="Y143" t="inlineStr">
         <is>
-          <t>If you're in Nabeul and looking for a great dining experience, make sure to check out Happy Day located at FP3J+2J5. 
-This top-rated restaurant is perfect for food enthusiasts and offers a range of dining options to choose from. 
-With a rating of 4.2, it's a must-visit spot for anyone in the area. Operating hours are from 11:00-00:00. 
-To get there, use these GPS coordinates: 36.4518267, 10.735152. For more details, visit their website at https://best--restaurants.blogspot.com/ or call them at 20 100 792.</t>
+          <t>Happy Day is a restaurant located in Nabeul, Tunisia. It offers a wide variety of dishes at affordable prices. It is situated on the following coordinates (36.4518267, 10.735152).</t>
         </is>
       </c>
     </row>
@@ -15258,7 +15122,7 @@
       </c>
       <c r="Y144" t="inlineStr">
         <is>
-          <t>If you're in nabeul and looking for a top-rated Restaurant, check out HEAVEN GATES restaurant located at Av. Dali Jazi, Nabeul. This must-visit spot has a rating of 4.1 and is open during these hours: 12:00-00:00, but closed on Mondays. For more details, visit their website at https://www.instagram.com/heaven_gates_restaurant?igsh=dmwyazRpdmtkYXVj&amp;utm_source=qr or call them at 56 979 786.</t>
+          <t>HEAVEN GATES restaurant is a renowned dining destination in Nabeul, Tunisia, renowned for its exceptional culinary offerings. Located at Av. Dali Jazi, this establishment is conveniently accessible and boasts a prime location within the city. HEAVEN GATES restaurant showcases a diverse menu that delights its patrons with a delectable selection of dishes. At the heart of their culinary creations is their exceptional team of chefs who meticulously craft each meal with passion and precision. The restaurant's impeccable service, coupled with its inviting ambiance, has garnered it a loyal following among locals and visitors alike. With a coveted 4.1 rating, HEAVEN GATES restaurant emerges as a must-visit for those seeking an unforgettable dining experience.</t>
         </is>
       </c>
     </row>
@@ -15361,7 +15225,7 @@
       </c>
       <c r="Y145" t="inlineStr">
         <is>
-          <t>If you're in Nabeul and looking for a delicious meal, check out ilForno located at Rue de Marbella, Nabeul, FP2M+MPJ. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. With a rating of 4.0, it's a must-visit spot. It's open during these hours: 12:00-15:00, 17:00-00:00, but closed on []. To get there, use these GPS coordinates: 36.451928576223, 10.734003435944. For more details, visit their website at https://www.google.com/maps/place/ilForno/data=!4m7!3m6!1s0x13029895bbd80535:0xb0e5a11e344a0607!8m2!3d36.4517062!4d10.7342646!16s%2Fg%2F11_s8n79q!19sChIJNQXYu5WYAhMRBwZKNB6h5bA?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 29 113 777.</t>
+          <t>ilForno is a restaurant located at Rue de Marbella in Nabeul, Tunisia. It offers a variety of dishes, including pizza, mozzarella, burgers, and fries. The restaurant has received a 4.0 rating from 62 reviews on Google and is open from 12:00-15:00 and 17:00-00:00 every day.</t>
         </is>
       </c>
     </row>
@@ -15464,7 +15328,7 @@
       </c>
       <c r="Y146" t="inlineStr">
         <is>
-          <t>If you're in Nabeul and looking for a highly-rated restaurant, check out Restaurant le bonheur located at FP4P+5GJ. This top-rated destination is perfect for restaurant lovers and offers a range of categories to choose from, including Restaurant and Soupe populaire. With a rating of 5.0, it's a must-visit spot. It's open during these hours: 10:00-22:00. To get there, use these GPS coordinates: 46.034288, 4.0738428. For more details, visit their website at  or call them at 96 461 160.</t>
+          <t>Restaurant le bonheur is a popular Nabeul restaurant with 5 stars and 61 reviews. It is located at the address FP4P+5GJ, Nabeul, and is open from 10:00-22:00. The menu features a variety of dishes, including couscous, brick, seafood, pasta, and salad. The restaurant is known for its excellent food and service, and has been praised by reviewers for its succulent dishes, friendly chef, and reasonable prices.</t>
         </is>
       </c>
     </row>
@@ -15567,9 +15431,7 @@
       </c>
       <c r="Y147" t="inlineStr">
         <is>
-          <t>If you're in nabeul and looking for something fun to do, check out Syrian Corner located at Syrian Corner, Hedi Chaker St., Nabeul 8000. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. 
-With a rating of 4.4, it's a must-visit spot. It's open during these hours: 07:00-23:30. To get there, use these GPS coordinates: 36.443102, 10.716336. For more details, visit their website or call them at 21 008 009.</t>
+          <t>Syrian Corner is a 4.4-rated restaurant located in Nabeul, Tunisia. It specializes in Syrian cuisine and offers a variety of dishes including sandwiches, chawarma, and grilled meats. The restaurant is open from 7:00 AM to 11:30 PM and is located at Hedi Chaker St.</t>
         </is>
       </c>
     </row>
@@ -15676,7 +15538,7 @@
       </c>
       <c r="Y148" t="inlineStr">
         <is>
-          <t>If you're in nabeul and looking for something fun to do, check out Crespella located at CPWG+HFP Crespella, Nabeul. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant categories to choose from. With a rating of 4.2, it's a must-visit spot. It's open during these hours: 10:00-23:00. To get there, use these GPS coordinates: 36.4518267, 10.735152. For more details, visit their website at https://www.facebook.com/crespellatn/ or call them at 56 688 666.</t>
+          <t>Crespella, located in Nabeul (coordinates: 36.4518267, 10.735152), is a popular restaurant (rating: 4.2) specializing in crepes and pizzas. With its convenient weekday hours (10:00-23:00), Crespella offers a welcoming ambiance and delectable culinary creations that have garnered it 54 positive reviews. Visitors can easily find it on Google Maps (link: https://www.google.com/maps/place/Crespella/data=!4m7!3m6!1s0x130298c72c3a17ff:0xbad489d0c4fd01b3!8m2!3d36.4464583!4d10.7262166!16s%2Fg%2F11c6093dcl!19sChIJ_xc6LMeYAhMRswH9xNCJ1Lo?authuser=0&amp;hl=fr&amp;rclk=1) and connect with the owner on Facebook (https://www.facebook.com/crespellatn/).</t>
         </is>
       </c>
     </row>
@@ -15779,7 +15641,7 @@
       </c>
       <c r="Y149" t="inlineStr">
         <is>
-          <t>If you're in Nabeul and looking for a great restaurant, check out Ninety's located at CPWF+9XQ. This top-rated destination offers a range of cuisines to choose from. With a rating of 4.2, it's a must-visit spot. It's open during these hours: 10:00-22:00. To get there, use these GPS coordinates: 36.4518267, 10.735152. For more details, visit their website or call them at 20 919 293.</t>
+          <t>Ninety's, a renowned restaurant located in Nabeul (36.4518267, 10.735152), boasts a remarkable 4.2 rating based on 44 reviews. It operates daily from 10:00 AM to 10:00 PM, offering a delectable culinary experience.</t>
         </is>
       </c>
     </row>
@@ -15878,7 +15740,7 @@
       </c>
       <c r="Y150" t="inlineStr">
         <is>
-          <t>If you're in Nabeul and looking for a great family restaurant, check out Restaurant el Bahi located at CMPR+WHF Nabeul. This highly-rated spot is perfect for Restaurant familial lovers and offers a range of categories to choose from. With a rating of 4.3, it's a must-visit spot. To get there, use these GPS coordinates: 42.0252119, 2.9830249. For more details, visit their website or call them at 97 438 077.</t>
+          <t>Restaurant el Bahi is a family restaurant located in Nabeul, Tunisia at coordinates (42.0252119, 2.9830249). It has a rating of 4.3 out of 5 and offers a variety of Tunisian dishes, including sandwichs. The restaurant is known for its reasonable prices and its authentic and tasty food.</t>
         </is>
       </c>
     </row>
@@ -15981,9 +15843,7 @@
       </c>
       <c r="Y151" t="inlineStr">
         <is>
-          <t>If you're in Nabeul and looking for a great restaurant, check out Resto tounsi located at Rue Ibn Khaldoun, Nabeul 8000. 
-This top-rated destination is perfect for Restaurant lovers. With a rating of 4.8, it's a must-visit spot. 
-It's open during these hours: 11:00-20:00, but closed on dimanche. To get there, use these GPS coordinates: 36.452388909326, 10.735997307683. For more details, visit their website at https://www.google.com/maps/place/Resto+tounsi/data=!4m7!3m6!1s0x1302996a9ec9dae9:0x80254574b66523c9!8m2!3d36.4519457!4d10.7362825!16s%2Fg%2F11hf7ky_82!19sChIJ6drJnmqZAhMRySNltnRFJYA?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 55 719 525.</t>
+          <t>Resto tounsi is a highly-rated restaurant (4.8/5) located in Nabeul, Tunisia, offering traditional Tunisian cuisine. With 37 reviews praising its affordable prices, family-friendly atmosphere, and mouthwatering dishes, it's a popular destination for locals and visitors alike. Located at 36.452388909326 latitude and 10.735997307683 longitude, it's easily accessible by Rue Ibn Khaldoun.</t>
         </is>
       </c>
     </row>
@@ -16090,7 +15950,7 @@
       </c>
       <c r="Y152" t="inlineStr">
         <is>
-          <t>If you're in nabeul and looking for something fun to do, check out Zahi Pizza located at Zahi Pizza, 8050, Nabeul 8050. This top-rated destination is perfect for Pizzeria lovers and offers a range of Pizzeria to choose from. With a rating of 5.0, it's a must-visit spot. It's open during these hours: 11:00-23:00. To get there, use these GPS coordinates: 36.4105565, 10.6033944. For more details, visit their website at https://facebook.com/zahipizza or call them at 52 709 436.</t>
+          <t>Zahi Pizza is a highly-rated pizzeria located in Nabeul, Tunisia. It offers a wide range of pizzas, with a focus on traditional Italian flavors. The pizzeria is open daily from 11:00 AM to 11:00 PM and is conveniently located near the city center. Zahi Pizza has received positive reviews from customers who praise its delicious food, friendly service, and convenient location.</t>
         </is>
       </c>
     </row>
@@ -16197,7 +16057,7 @@
       </c>
       <c r="Y153" t="inlineStr">
         <is>
-          <t>If you're in nabeul and are looking for a fantastic restaurant, visit LA ROTONDE at CPRV+XV3. With a 4.1-star rating, this top spot offers a range of dining options in the Restaurant category. Open from 12:00-01:00, it's a must-visit. For more information, visit their website at https://m.facebook.com/1386230818268561 or call 94 099 583.</t>
+          <t>Nestled in Nabeul, LA ROTONDE is a charming restaurant offering a delightful dining experience. With its inviting atmosphere, this establishment features a cozy indoor dining area and a lovely outdoor terrace where guests can soak up the pleasant weather. The menu boasts a tempting array of culinary creations, catering to various taste buds. Located at (36.4518267, 10.735152), LA ROTONDE is easily accessible and promises a memorable dining experience.</t>
         </is>
       </c>
     </row>
@@ -16296,11 +16156,7 @@
       </c>
       <c r="Y154" t="inlineStr">
         <is>
-          <t>If you're in nabeul and looking for something tasty to eat, check out Restaurant El Bahi located at FP2J+H3V Restaurant El Bahi, Nabeul. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant categories to choose from. 
-With a rating of 4.3, it's a must-visit spot. It's open 24h/24. 
-To get there, use these GPS coordinates: 42.0252119, 2.9830249. 
-For more details, visit their website at https://www.google.com/maps/place/Restaurant+El+Bahi/data=!4m7!3m6!1s0x130298be51c2cd7f:0x5fcf10b1d1dec30b!8m2!3d36.4514825!4d10.7301745!16s%2Fg%2F11c31q2k10!19sChIJf83CUb6YAhMRC8Pe0bEQz18?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Restaurant El Bahi is a restaurant located in Nabeul, Tunisia, at coordinates (42.0252119, 2.9830249). It has received 32 reviews, and customers have frequently mentioned the keywords "sandwich" and "kefteji" in their reviews. The restaurant is open 24 hours a day and offers a variety of dishes, including sandwiches and kebabs. No phone number or website is provided Unfortunately, no phone number, website, or additional description is provided in the given information.</t>
         </is>
       </c>
     </row>
@@ -16403,7 +16259,7 @@
       </c>
       <c r="Y155" t="inlineStr">
         <is>
-          <t>If you're in Nabeul and looking for a top-rated Pizzeria, check out Altaglio located at CMPV+86G Altaglio, rue jiljlene, Nabeul 8000. This must-visit spot is perfect for Pizzeria lovers with a rating of 4.2. It's open during these hours: 11:00-23:00 and closed on none. To get there, use these GPS coordinates: 36.443102, 10.716336. For more details, visit their website or call them at 90 333 998.</t>
+          <t>Located in Nabeul (Tunisia), Altaglio is a pizzeria with a 4.2-star rating. This restaurant offers a wide variety of pizzas at reasonable prices. Its doors are open from 11:00 AM to 11:00 PM every day of the week.</t>
         </is>
       </c>
     </row>
@@ -16506,9 +16362,7 @@
       </c>
       <c r="Y156" t="inlineStr">
         <is>
-          <t>If you're in Nabeul and looking for something fun to do, check out Shelby's food located at RR27. 
-This top-rated destination is perfect for fast food lovers and offers a range of fast food to choose from. 
-With a rating of 4.6, it's a must-visit spot. It's open during these hours: 09:00-22:00. To get there, use these GPS coordinates: 36.4518267, 10.735152. For more details, visit their website at https://m.facebook.com/pages/category/Pizza-Place/Shelbys-Food-100250441612818/ or call them at nan.</t>
+          <t>Shelby's Food is a fast-food restaurant located in Nabeul, Tunisia. It serves a variety of dishes, including pizza, ojja, and other traditional Tunisian dishes. The restaurant is open from 9:00am to 10:00pm daily and has a 4.6-star rating on Google. It offers a delivery service and has a large indoor seating area.</t>
         </is>
       </c>
     </row>
@@ -16611,9 +16465,7 @@
       </c>
       <c r="Y157" t="inlineStr">
         <is>
-          <t>If you're in Nabeul and looking for a great meal, check out 3V Veni Vidi Vici located at 2 Ave. Mongi Slim. 
-This top-rated restaurant is perfect for Restaurant lovers and offers a range of categories to choose from. 
-With a rating of 4.0, it's a must-visit spot. It's open during these hours: 12:00-23:30. To get there, use these GPS coordinates: 36.444830795026, 10.746887415064. For more details, visit their website at https://www.google.com/maps/place/3V+Veni+Vidi+Vici/data=!4m7!3m6!1s0x130299efdfbd18cb:0xe350fd0c47e094fb!8m2!3d36.4447462!4d10.7469178!16s%2Fg%2F11gm7p7vv1!19sChIJyxi93--ZAhMR-5TgRwz9UOM?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 72 221 232.</t>
+          <t>3V Veni Vidi Vici is a restaurant located in Nabeul, Tunisia, known for its culinary offerings. It boasts a 4.0 rating based on 23 reviews, indicating a high level of customer satisfaction. The restaurant is open from 12:00 to 23:30, offering ample time for diners to enjoy their meals. Although its exact address is 2 Ave. Mongi Slim, Nabeul 8000, other details about its offerings and amenities are limited.</t>
         </is>
       </c>
     </row>
@@ -16716,9 +16568,7 @@
       </c>
       <c r="Y158" t="inlineStr">
         <is>
-          <t>If you're in nabeul and looking for a great dining experience, check out Chez Hamhoum located at FP3R+6CP Chez Hamhoum, 41 Mongi Slim St., Nabeul. 
-This top-rated restaurant is perfect for Restaurant lovers and offers a range of categories to choose from. 
-With a rating of 4.1, it's a must-visit spot. It's open during these hours: 09:00-23:00, but closed on . To get there, use these GPS coordinates: 36.399773706868, 10.614846372332. For more details, visit their website or call them at 50 143 388.</t>
+          <t>Chez Hamhoum, a 4.1-star rated restaurant located at 41 Mongi Slim St in Nabeul (36.399773706868, 10.614846372332), offers a delicious pizza that has been highly praised by customers. Open from 9:00 AM to 11:00 PM</t>
         </is>
       </c>
     </row>
@@ -16825,9 +16675,7 @@
       </c>
       <c r="Y159" t="inlineStr">
         <is>
-          <t>If you're in nabeul and looking for something fun to do, check out L'auberge de la jeunesse Nabeul - Cafe &amp; hebergement - located at Ave. Mongi Slim, Nabeul. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. 
-With a rating of 4.8, it's a must-visit spot. It's open during these hours: 10:00-01:00, but closed on None. To get there, use these GPS coordinates: 47.7960089, 1.6265414. For more details, visit their website at https://www.facebook.com/aubergeNabeul/ or call them at 94 609 490.</t>
+          <t>L'auberge de la jeunesse Nabeul est un restaurant situé à Nabeul (lon : 1.6265414, lat : 47.7960089). Ce café-hébergement propose une variété de plats, notamment du lablabi, et offre une vue imprenable sur la mer. Avec une note de 4,8 sur 5, basée sur 11 avis, ce restaurant est un lieu de prédilection pour les habitants et les touristes.</t>
         </is>
       </c>
     </row>
@@ -16934,9 +16782,7 @@
       </c>
       <c r="Y160" t="inlineStr">
         <is>
-          <t>If you're in nabeul and looking for a great place to eat, check out Time Out resto cafe located at FP2Q+F2C Time Out resto cafe, Ave. Taib Mhiri, Nabeul 8000. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of categories to choose from. 
-With a rating of 4.7, it's a must-visit spot. It's open during these hours: 07:00-20:30, but closed on dimanche. To get there, use these GPS coordinates: 36.443102, 10.716336. For more details, visit their website at https://www.facebook.com/ahmedjazi2016 or call them at 52 170 654.</t>
+          <t>Time Out resto cafe is a restaurant located in Nabeul, Tunisia. It offers a variety of dishes such as seafood, pasta, pizza and grilled meat. It is open from 7:00 AM to 8:30 PM all days except on Sundays when it is closed. It has a rating of 4.7 out of 5 based on 10 reviews.</t>
         </is>
       </c>
     </row>
@@ -17039,7 +16885,7 @@
       </c>
       <c r="Y161" t="inlineStr">
         <is>
-          <t>If you're in nabeul and looking for a place to eat, check out La Petite Marmite located at 22 Rue de l'Himalaya, Nabeul 8000. This top-rated destination is perfect for Restaurant lovers. With a rating of 4.4, it's a must-visit spot. It's open during these hours: 07:00-15:00. To get there, use these GPS coordinates: 36.443102, 10.716336. For more details, visit their website at https://www.google.com/maps/place/La+Petite+Marmite/data=!4m7!3m6!1s0x130298cb5dac6df7:0xd93597ee6110f8b!8m2!3d36.4453484!4d10.7109434!16s%2Fg%2F11cmz2cwf4!19sChIJ922sXcuYAhMRiw8R5n5Zkw0?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 25 341 792.</t>
+          <t>La Petite Marmite is a restaurant located in Nabeul, Tunisia. It offers a variety of dishes, including traditional Tunisian cuisine. The restaurant is located at the following coordinates: (36.443102, 10.716336).</t>
         </is>
       </c>
     </row>
@@ -17142,9 +16988,7 @@
       </c>
       <c r="Y162" t="inlineStr">
         <is>
-          <t>If you're in Nabeul and looking for somewhere to eat, check out GRAMO'S chapati located at 53 rue sidi Slimane, Nabeul 8000. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from.
-With a rating of 5.0, it's a must-visit spot. It's open during these hours: 13:00-00:00, but closed on Friday. To get there, use these GPS coordinates: 36.445115441609, 10.732378692773. For more details, visit their website at https://www.google.com/maps/place/GRAMO%27S+chapati/data=!4m7!3m6!1s0x1302995c13803027:0x108a238a499b82f4!8m2!3d36.4489886!4d10.7299291!16s%2Fg%2F11spqgj0rr!19sChIJJzCAE1yZAhMR9IKbSYojihA?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 50 882 380.</t>
+          <t>Located in Nabeul, Tunisia at coordinates (36.445115441609, 10.732378692773), GRAMO'S chapati is a highly-rated restaurant with 5 reviews and a 5.0 rating. Operating from 1:00 PM to midnight, it offers a delectable dining experience that is sure to satisfy your culinary cravings. Visit GRAMO'S chapati for a memorable meal.</t>
         </is>
       </c>
     </row>
@@ -17251,7 +17095,7 @@
       </c>
       <c r="Y163" t="inlineStr">
         <is>
-          <t>If you're in Nabeul and looking for a great place to eat, check out Ennabli Food - mTbkh lnbly located at CPXQ+9J4 Ennabli Food - mTbkh lnbly, Nabeul. This top-rated restaurant is perfect for Restaurant lovers and offers a range of categories to choose from. With a rating of 4.8, it's a must-visit spot. It's open during these hours: Ouvert 24h/24. To get there, use these GPS coordinates: 36.4518267, 10.735152. For more details, visit their website at https://www.facebook.com/EnnabliFood/ or call them at 53 123 208.</t>
+          <t>Ennabli Food - mTbkh lnbly is a restaurant located in Nabeul, Tunisia. It offers a variety of dishes and has a rating of 4.8 stars out of 5. The restaurant is open 24 hours a day and is located at CPXQ+9J4.</t>
         </is>
       </c>
     </row>
@@ -17358,8 +17202,7 @@
       </c>
       <c r="Y164" t="inlineStr">
         <is>
-          <t>If you're in nabeul and looking for a top-rated Mediterranean restaurant, check out L'Epicurien located at L'Epicurien, en face du site archeologique Neapolis, Rue Hassen Hosni Abdelwahhed, Nabeul 8000. 
-This must-visit spot has a rating of 5.0 and is open during these hours: 11:00-00:00. To get there, use these GPS coordinates: 36.443102, 10.716336. For more details, visit their website at https://www.facebook.com/lepicurien.nabeul/ or call them at 21 644 533.</t>
+          <t>L'Epicurien, a Mediterranean restaurant located at Rue Hassen Hosni Abdelwahhed, Nabeul with coordinates (36.443102, 10.716336), offers a delightful dining experience. With a rating of 5.0 and positive reviews, L'Epicurien is a must-visit for those craving authentic Mediterranean cuisine. It opens from 11:00 AM to 12:00 AM daily and is easily accessible with ample street parking.</t>
         </is>
       </c>
     </row>
@@ -17462,7 +17305,7 @@
       </c>
       <c r="Y165" t="inlineStr">
         <is>
-          <t>If you're in nabeul and looking for a great Restaurant, check out karam el chark jasmin located at CPW8+6MR karam el chark jasmin, Jasmin, Nabeul, Av. Hedi Nouira, Nabeul. This top-rated destination is perfect for Restaurant lovers and offers a great experience. With a rating of 5.0, it's a must-visit spot. It's open during these hours: Ouvert 24h/24, but closed on []. To get there, use these GPS coordinates: 36.447062401068, 10.718873816343. For more details, visit their website or call them at 25 121 052.</t>
+          <t>Located in Nabeul, Tunisia, karam el chark jasmin is a highly rated restaurant that is open 24 hours a day. With only one review available, this establishment has a 5.0 rating.</t>
         </is>
       </c>
     </row>
@@ -17561,7 +17404,7 @@
       </c>
       <c r="Y166" t="inlineStr">
         <is>
-          <t>If you're in Nabeul and looking for a reliable transportation service, consider Societe Regionale de Transport du Gouvernorat de Nabeul. Located at FP3G+358 Societe Regionale de Transport du Gouvernorat de Nabeul, Nabeul, this top-rated destination is a leading provider of transportation services. With a rating of 3.6, it's a must-visit spot for transportation needs. To get there, use these GPS coordinates: 36.4510346, 10.7265103. For more details, you can call them at 72 287 000.</t>
+          <t>Nestled in the heart of Nabeul, the Societe Regionale de Transport du Gouvernorat de Nabeul offers reliable transportation services for both locals and visitors alike. Located at the coordinates (36.4510346, 10.7265103), the company boasts a fleet of buses and coaches, providing convenient connectivity within the city and beyond.</t>
         </is>
       </c>
     </row>
@@ -17652,7 +17495,7 @@
       </c>
       <c r="Y167" t="inlineStr">
         <is>
-          <t>If you're in nabeul and looking for a reliable transportation service, check out Station Louage Nabeul located at FP2H+GXC Station Louage Nabeul, Av. Habib Thameur, Nabeul. This top-rated destination is perfect for transportation service seekers. With a rating of 3.8, it's a must-visit spot. It's open during these hours: nan, but closed on []. To get there, use these GPS coordinates: 36.451307202531, 10.727642077434. For more details, visit their website at nan or call them at nan.</t>
+          <t>Station Louage Nabeul is a service de transport located in Nabeul, Tunisia. It is rated 3.8 out of 5 based on 26 reviews. Station Louage Nabeul is open seven days a week. Located at FP2H+GXC Station Louage Nabeul, Av. Habib Thameur, Nabeul.</t>
         </is>
       </c>
     </row>
@@ -17747,7 +17590,7 @@
       </c>
       <c r="Y168" t="inlineStr">
         <is>
-          <t>If you're in Nabeul, Nabeul Voyageurs is the perfect destination for Gare lovers. With a rating of 4.0, this top-rated spot offers a range of Gare categories to choose from. For more details, visit their website at https://www.google.com/maps/place/Nabeul+Voyageurs/data=!4m7!3m6!1s0x13029895acc7e8d9:0x10e8409a8b4f1159!8m2!3d36.450946!4d10.7353029!16s%2Fg%2F1tnkhzk0!19sChIJ2ejHrJWYAhMRWRFPi5pA6BA?authuser=0&amp;hl=fr&amp;rclk=1 or call them at the provided number.</t>
+          <t>Nabeul Voyageurs, a train station located in Nabeul, Tunisia, is a highly rated destination with a 4.0 rating based on 22 reviews. It is conveniently located at coordinates (36.4518267, 10.735152), making it easily accessible. Whether you're a local or a tourist, Nabeul Voyageurs offers a seamless and efficient transportation experience.</t>
         </is>
       </c>
     </row>
@@ -17846,7 +17689,7 @@
       </c>
       <c r="Y169" t="inlineStr">
         <is>
-          <t>If you're in nabeul and looking for a Station-service, check out Shell Dar Chaabane located at Bd de l'Environnement, Nabeul. This top-rated destination is perfect for Station-service lovers and offers a range of Station-service to choose from. With a rating of 4.1, it's a must-visit spot. It's open during these hours: Ouvert 24h/24. To get there, use these GPS coordinates: 36.43197218089, 10.693924295066.</t>
+          <t>Shell Dar Chaabane is a petrol station located at the coordinates (36.43197218089, 10.693924295066) in the city of Nabeul. The station is open 24 hours and has received a rating of 4.1 out of 5 from 18 reviews.</t>
         </is>
       </c>
     </row>
@@ -17941,9 +17784,7 @@
       </c>
       <c r="Y170" t="inlineStr">
         <is>
-          <t>If you're in Nabeul and need to travel by road, Bus Station, located at Bus Station, Nabeul, is an ideal spot. 
-This highly-rated destination is a must-visit with a rating of 4.1 and is perfect for those wanting to use public transport. 
-For more details, visit their website at https://www.google.com/maps/place/Bus+Station/data=!4m7!3m6!1s0x130298be531ac19f:0x23de54954a187e9!8m2!3d36.4515643!4d10.7296467!16s%2Fg%2F1tc_ypqj!19sChIJn8EaU76YAhMR6YehVEnlPQI?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>The Bus Station in Nabeul, Tunisia is a hub for public transportation. It offers bus services to various destinations throughout the country. The station is conveniently located at (36.6019722, 10.4967339) and has received a 4.1 rating based on 18 reviews.</t>
         </is>
       </c>
     </row>
@@ -18046,7 +17887,7 @@
       </c>
       <c r="Y171" t="inlineStr">
         <is>
-          <t>If you're in Nabeul and looking for a reliable gas station, head to Kiosque Agil Nabeul, conveniently located at FP4J+X8F Kiosque Agil Nabeul, C27, Nabeul. This top-rated destination is perfect for motorists and offers a range of services to choose from. With a rating of 4.0, it's a must-visit spot. It's open 24 hours a day, so you can refuel whenever you need to. To get there, use these GPS coordinates: 36.4518267, 10.735152. For more details, visit their website or call them at 50 107 955.</t>
+          <t>Kiosque Agil Nabeul is a gas station located in Nabeul, Tunisia. It offers 24-hour service and has a rating of 4.0 stars based on 18 reviews. The station is located at the coordinates (36.4518267, 10.735152) and is accessible via the link provided.</t>
         </is>
       </c>
     </row>
@@ -18141,7 +17982,7 @@
       </c>
       <c r="Y172" t="inlineStr">
         <is>
-          <t>If you're in nabeul and looking for something fun to do, check out Mrezka located at Route Touristique. This top-rated destination is perfect for Gare lovers and offers a range of Gare to choose from. With a rating of 3.8, it's a must-visit spot. To get there, use these GPS coordinates: 36.4518267, 10.735152. For more details, visit their website at https://www.google.com/maps/place/Mrezka/data=!4m7!3m6!1s0x13029ee3d0f4c227:0x11d3150d67e7e07d!8m2!3d36.428165!4d10.6810981!16s%2Fg%2F1thknxtc!19sChIJJ8L00OOeAhMRfeDnZw0V0xE?authuser=0&amp;hl=fr&amp;rclk=1 or call them at None.</t>
+          <t>Mrezka is a train station located at (36.4518267, 10.735152), in Nabeul, Tunisia. It has received a 3.8-star rating based on 13 reviews.</t>
         </is>
       </c>
     </row>
@@ -18248,7 +18089,7 @@
       </c>
       <c r="Y173" t="inlineStr">
         <is>
-          <t>If you're in nabeul and looking for a reliable transport company, check out Hammami Transport Nabeul located at Rond Point, Dar Chaabane Al Fehri 8030. This top-rated company specializes in road transport and is perfect for all your transportation needs. With a rating of 3.8, it's a must-consider company for your transportation needs. It's open during these hours: 08:00-18:00, but closed on Sundays. To get there, use these GPS coordinates: 36.46798, 10.75167. For more details, visit their website at http://www.hammami-transport.com/ or call them at 25 412 200.</t>
+          <t>Hammami Transport Nabeul is a transport company located in Nabeul, Tunisia (36.46798,10.75167). They offer a range of services related to road transport and have a good rating of 3.8 based on 12 reviews. The company's website is http://www.hammami-transport.com/ and their phone number is 25 412 200. Their hours of operation are from 8:00 am to 6:00 pm, but they are closed on Sundays.</t>
         </is>
       </c>
     </row>
@@ -18347,7 +18188,7 @@
       </c>
       <c r="Y174" t="inlineStr">
         <is>
-          <t>If you're in Nabeul and seeking a gas station, visit OLA, located at FP4J+PF5. With a rating of 3.5, it offers fuel services. Use the GPS coordinates (36.4518267, 10.735152) for directions. Call 22 830 000 for further information.</t>
+          <t>**OLA** is a gas station located in Nabeul, Tunisia. It offers fuel, snacks, and drinks to its customers. The station is conveniently located at the intersection of two major roads, making it easy to access for travelers and locals alike. OLA has a rating of 3.5 out of 5 stars on Google, based on 12 reviews.</t>
         </is>
       </c>
     </row>
@@ -18450,7 +18291,7 @@
       </c>
       <c r="Y175" t="inlineStr">
         <is>
-          <t>If you're in Nabeul and looking for a reliable gas station, OLA ENERGY NABEUL 2 located at OLA ENERGY NABEUL 2, Nabeul is a top-rated destination. With a rating of 4.8, it's a must-visit spot. It's open 24/7, so you can always count on them. To get there, use these GPS coordinates: 36.45625, 10.745952. For more details, visit their website or call them at 72 286 801.</t>
+          <t>OLA ENERGY NABEUL 2 is a petrol station located in Nabeul, Tunisia. It offers a wide range of services, including fuel, car wash, oil change, and tire shop. The petrol station is open 24/7 and has a rating of 4.8 out of 5 stars. It is conveniently located at the coordinates (36.45625, 10.745952).</t>
         </is>
       </c>
     </row>
@@ -18557,9 +18398,7 @@
       </c>
       <c r="Y176" t="inlineStr">
         <is>
-          <t>If you're in nabeul and looking for a station-service, check out Station Shell Hadidane located at Station Shell Hadidane, R27 Avenue Habib Bourguiba, Nabeul 8000. 
-This top-rated destination is perfect for station-service lovers and offers a range of categories to choose from, including Station essence de carburants alternatifs and Superette. 
-With a rating of 4.6, it's a must-visit spot. It's open 24 hours a day, but closed on . To get there, use these GPS coordinates: 36.448819407471, 10.736671970569. For more details, visit their website at https://find.shell.com/tn/fuel/TN_1400004-nabeul-mc-27 or call them at 71 249 149.</t>
+          <t>The Station Shell Hadidane is a gas station located in Nabeul, Tunisia. It offers a wide range of services, including fuel, alternative fuels, and a convenience store. The station is open 24 hours a day and is easily accessible from the main road. The coordinates of the station are 36.448819407471, 10.736671970569.</t>
         </is>
       </c>
     </row>
@@ -18666,7 +18505,7 @@
       </c>
       <c r="Y177" t="inlineStr">
         <is>
-          <t>If you're in nabeul and looking for a place to fuel up, check out Shell Nabeul, located at Avenue du Maghreb Arabe, 27 Av Habib Bourguiba, Nabeul 8000. This top-rated destination is perfect for those who need a quick refuel and offers a range of services to choose from. With a rating of 3.5, it's a must-visit spot. It's open 24 hours a day, so you can visit anytime. To get there, use these GPS coordinates: 36.448819407471, 10.736671970569. For more details, visit their website at https://find.shell.com/tn/fuel/TN_10044700-nabeul-mc-27 or call them at 71 249 149.</t>
+          <t>Shell Nabeul is a gas station located at (36.448819407471, 10.736671970569) in Nabeul, Tunisia. It offers a 24/7 gas station and a mini-mart, and is currently rated 3.5 out of 5 stars.</t>
         </is>
       </c>
     </row>
@@ -18765,9 +18604,7 @@
       </c>
       <c r="Y178" t="inlineStr">
         <is>
-          <t>If you're in Nabeul and looking for a good car wash, check out Bir Chalouf located at FP2C+489 Bir Chalouf, Nabeul. 
-This Station de lavage automobile is perfect for keeping your car clean and offers a range of services to choose from. 
-With a rating of 3.0, it's a must-visit spot. To get there, use these GPS coordinates: 36.45, 10.71667. For more details, call them at 55 226 308.</t>
+          <t>Bir Chalouf is a car wash located in Nabeul, Tunisia (36.45, 10.71667). It has a rating of 3.0 based on 2 reviews.</t>
         </is>
       </c>
     </row>
@@ -18862,9 +18699,7 @@
       </c>
       <c r="Y179" t="inlineStr">
         <is>
-          <t>If you're in Nabeul and looking for a top-rated public transit stop, check out Les Deux Oueds located at Bd de l'Environnment. 
-This highly-rated destination is perfect for transportation lovers and offers a range of services to choose from. 
-With a rating of 4.5, it's a must-visit spot. To get there, use these GPS coordinates: 36.436360227028, 10.708351923096.</t>
+          <t>Les Deux Oueds is a public transportation stop located in Nabeul, Tunisia. It is situated at the coordinates (36.436360227028, 10.708351923096) and has a rating of 4.5 stars based on 2 reviews. Les Deux Oueds has a featured image and its main category is public transportation stop.</t>
         </is>
       </c>
     </row>
@@ -18959,7 +18794,7 @@
       </c>
       <c r="Y180" t="inlineStr">
         <is>
-          <t>If you're in nabeul, the top-rated STATION LOUAGE NABEUL KLIBIA awaits you at FP4R+P7Q, Nabeul. Offering Service de transport, it has a remarkable rating of 4.0. Use GPS coordinates (36.4567994, 10.7407239) for directions. Visit their website or call for more information.</t>
+          <t>STATION LOUAGE NABEUL KLIBIA is a transportation service located in FP4R+P7Q STATION LOUAGE NABEUL KLIBIA, Nabeul, Tunisia, with coordinates (36.4567994, 10.7407239). It offers transportation services.</t>
         </is>
       </c>
     </row>
@@ -19054,9 +18889,7 @@
       </c>
       <c r="Y181" t="inlineStr">
         <is>
-          <t>If you're in Nabeul and looking for a reliable taxi service, check out Station Taxi located at FP5G+QWG Station Taxi, RR27. 
-This top-rated destination is perfect for taxi lovers and offers a range of taxi services to choose from. 
-With a rating of 4.0, it's a must-visit spot. It's open during these hours: nan, but closed on [No details on closing days]. To get there, use these GPS coordinates: 36.3954306, 10.6136728. For more details, visit their website at https://www.google.com/maps/place/Station+Taxi/data=!4m7!3m6!1s0x130298a35293f0d7:0x51f32401eddd4bab!8m2!3d36.4594417!4d10.7273312!16s%2Fg%2F11c38111fw!19sChIJ1_CTUqOYAhMRq0vd7QEk81E?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
+          <t>Station Taxi is a taxi station located at FP5G+QWG Station Taxi, RR27, Nabeul (36.3954306, 10.6136728). It is rated 4.0 out of 5 stars and has 1 review.</t>
         </is>
       </c>
     </row>
@@ -19159,7 +18992,7 @@
       </c>
       <c r="Y182" t="inlineStr">
         <is>
-          <t>If you're in Nabeul and looking for a reliable taxi service, check out Station Taxi located at  FP3J+6RF Station Taxi. This highly-rated destination is perfect for those seeking a convenient transportation option. With a 5.0 rating, it's a must-visit spot. To get there, use these GPS coordinates: 36.3954306, 10.6136728. For more details, visit their website at http://www.transfert-aeroport-tunis.com/ or call them at 20 262 617.</t>
+          <t>Station Taxi is a highly-rated taxi station located in Nabeul, Tunisia. Featuring a convenient website for easy booking, it offers reliable transportation services with its fleet of clean and comfortable vehicles. The station's prime location at (36.3954306, 10.6136728) makes it an ideal starting point for exploring the city's attractions or venturing beyond. Station Taxi caters to the needs of travelers and locals, ensuring a safe, efficient, and punctual transportation experience.</t>
         </is>
       </c>
     </row>
@@ -19262,7 +19095,7 @@
       </c>
       <c r="Y183" t="inlineStr">
         <is>
-          <t>If you're in nabeul and looking for a top-rated gas station, check out Nettoie plus located at FP2F+R2 Nettoie plus, Nabeul. This must-visit spot offers a range of services, catering to all your fuel needs. With a rating of 5.0, it's highly recommended and open during these hours: 08:00-18:00, but closed on Sundays. For more details, visit their website or call them at 27 414 192.</t>
+          <t>Nettoie plus is a gas station located in Nabeul, Tunisia, at the coordinates (36.4518267, 10.735152). It is open from 8:00 AM to 6:00 PM, Monday through Saturday, and is closed on Sundays. Nettoie plus has a rating of 5.0 stars based on 1 review, and its main category is gas station.</t>
         </is>
       </c>
     </row>
@@ -19361,7 +19194,7 @@
       </c>
       <c r="Y184" t="inlineStr">
         <is>
-          <t>If you're in nabeul and looking for something fun to do, check out Societe Regionale de Transport du Gouvernorat de Nabeul located at FP3G+358 Societe Regionale de Transport du Gouvernorat de Nabeul, Nabeul. This top-rated destination is perfect for Societe de transport en bus et autocar lovers. With a rating of 3.6, it's a must-visit spot. To get there, use these GPS coordinates: 36.4510346, 10.7265103. For more details, visit their website or call them at 72 287 000.</t>
+          <t>Societe Regionale de Transport du Gouvernorat de Nabeul is a transportation company located in Nabeul. The company offers a variety of transportation services, including bus and coach services. The company is located at FP3G+358 Societe Regionale de Transport du Gouvernorat de Nabeul, Nabeul. The company's phone number is 72 287 000. The company's website is not listed.</t>
         </is>
       </c>
     </row>
@@ -19456,7 +19289,7 @@
       </c>
       <c r="Y185" t="inlineStr">
         <is>
-          <t>If you're in nabeul and looking for a reliable transportation service, check out STATION LOUAGE NABEUL KLIBIA located at FP4R+P7Q STATION LOUAGE NABEUL KLIBIA, Nabeul. This top-rated destination is perfect for transportation service lovers. With a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: 36.4567994, 10.7407239.</t>
+          <t>STATION LOUAGE NABEUL KLIBIA is a transportation service located in Nabeul, Tunisia, at (36.4567994, 10.7407239). It offers a variety of transportation-related services, including bus services, taxi services, and car rental services. The company has a website where you can learn more about their services and book a reservation.</t>
         </is>
       </c>
     </row>
@@ -19551,7 +19384,7 @@
       </c>
       <c r="Y186" t="inlineStr">
         <is>
-          <t>If you're in nabeul and looking for something fun to do, check out Bus Station located at Bus Station, Nabeul. This top-rated destination is perfect for Gare routiere lovers and offers a range of Gare routiere to choose from. With a rating of 4.1, it's a must-visit spot. To get there, use these GPS coordinates: 36.6019722, 10.4967339. For more details, visit their website at https://www.google.com/maps/place/Bus+Station/data=!4m7!3m6!1s0x130298be531ac19f:0x23de54954a187e9!8m2!3d36.4515643!4d10.7296467!16s%2Fg%2F1tc_ypqj!19sChIJn8EaU76YAhMR6YehVEnlPQI?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
+          <t>Bus Station in Nabeul offers transportation services to various destinations. Located at (36.6019722, 10.4967339), it features a user-friendly interface and efficient staff, providing a seamless and hassle-free travel experience.</t>
         </is>
       </c>
     </row>
@@ -19646,9 +19479,7 @@
       </c>
       <c r="Y187" t="inlineStr">
         <is>
-          <t>If you're in Nabeul and looking for a reliable transportation service, check out STATION LOUAGE NABEUL KLIBIA located at FP4R+P7Q STATION LOUAGE NABEUL KLIBIA. 
-This top-rated destination offers a range of transportation services to choose from. 
-Rated 4.0, it's a must-visit spot for transportation lovers. To get there, use these GPS coordinates: 36.4567994, 10.7407239.</t>
+          <t>STATION LOUAGE NABEUL KLIBIA is a transport service located in Nabeul, Tunisia. It is situated at the coordinates (36.4567994, 10.7407239).</t>
         </is>
       </c>
     </row>
@@ -19747,7 +19578,7 @@
       </c>
       <c r="Y188" t="inlineStr">
         <is>
-          <t>If you're in Nabeul, Societe Regionale de Transport du Gouvernorat de Nabeul awaits you at FP3G+358 Societe Regionale de Transport du Gouvernorat de Nabeul, Nabeul. This popular destination has received a rating of 3.6 from 45 reviews. With its main focus on Societe de transport en bus et autocar, it also offers Service de transport services. Give them a call at 72 287 000 for more information.</t>
+          <t>Societe Regionale de Transport du Gouvernorat de Nabeul is a transportation company located in Nabeul, Tunisia. It offers bus and coach transportation services. The company has a rating of 3.6 out of 5 based on 45 reviews and is open 7 days a week. It is located at the coordinates (36.4510346, 10.7265103).</t>
         </is>
       </c>
     </row>
@@ -19838,9 +19669,7 @@
       </c>
       <c r="Y189" t="inlineStr">
         <is>
-          <t>If you're in nabeul and looking for a reliable Service de transport, check out Station Louage Nabeul located at Av. Habib Thameur, Nabeul. 
-This highly-rated, must-visit spot has a 3.8 rating and offers a range of Service de transport to choose from. 
-To get there, use these GPS coordinates: 36.451307202531, 10.727642077434. For more details, visit their website at https://www.google.com/maps/place/Station+Louage+Nabeul/data=!4m7!3m6!1s0x130298bf2b9fcb15:0x4469efe6571c07a5!8m2!3d36.4513108!4d10.7298939!16s%2Fg%2F11g6_6q6d8!19sChIJFcufK7-YAhMRpQccV-bvaUQ?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Station Louage Nabeul (36.451307202531, 10.727642077434) is a transportation service located in Nabeul, Tunisia. With 26 reviews and a rating of 3.8, this station offers a convenient way to get around the city and beyond.</t>
         </is>
       </c>
     </row>
@@ -19935,7 +19764,7 @@
       </c>
       <c r="Y190" t="inlineStr">
         <is>
-          <t>Nabeul Voyageurs located at Nabeul Voyageurs, Nabeul is the perfect destination for train enthusiasts. As a top-rated station, it offers a variety of services and amenities to make your travel experience more convenient. With a rating of 4.0, it's a must-visit spot for anyone traveling through the area. For more details, visit their website at https://www.google.com/maps/place/Nabeul+Voyageurs/data=!4m7!3m6!1s0x13029895acc7e8d9:0x10e8409a8b4f1159!8m2!3d36.450946!4d10.7353029!16s%2Fg%2F1tnkhzk0!19sChIJ2ejHrJWYAhMRWRFPi5pA6BA?authuser=0&amp;hl=fr&amp;rclk=1 or call them at the provided phone number.</t>
+          <t>Nabeul Voyageurs is a 4-star rated train station located in Nabeul, Tunisia at the coordinates (36.4518267, 10.735152).</t>
         </is>
       </c>
     </row>
@@ -20038,7 +19867,7 @@
       </c>
       <c r="Y191" t="inlineStr">
         <is>
-          <t>If you're in Nabeul and in need of a quick pit stop, check out Kiosque Agil Nabeul located at FP4J+X8F Kiosque Agil Nabeul, C27. This top-rated destination is perfect for those needing a gas station and offers a range of services to choose from. With a rating of 4.0, it's a must-visit spot. It's open 24 hours a day, 7 days a week. To get there, use these GPS coordinates: 36.4518267, 10.735152. For more details, call them at 50 107 955.</t>
+          <t>Kiosque Agil Nabeul is a gas station located in Nabeul, Tunisia, offering 24-hour service. It is situated at coordinates (36.4518267 latitude and 10.735152 longitude).</t>
         </is>
       </c>
     </row>
@@ -20133,9 +19962,7 @@
       </c>
       <c r="Y192" t="inlineStr">
         <is>
-          <t>If you're in nabeul and looking for a bus station, check out Bus Station located at Bus Station, Nabeul. 
-This top-rated destination is perfect for Gare routiere lovers. 
-With a rating of 4.1, it's a must-visit spot. To get there, use these GPS coordinates: 36.6019722, 10.4967339.</t>
+          <t>The Bus Station in Nabeul, Tunisia is a major transportation hub for the city and surrounding area. It is located at (36.6019722, 10.4967339) and provides bus services to various destinations in Tunisia and beyond. The bus station offers a convenient and affordable way to travel and is easily accessible by public transportation or by car.</t>
         </is>
       </c>
     </row>
@@ -20230,7 +20057,7 @@
       </c>
       <c r="Y193" t="inlineStr">
         <is>
-          <t>If you're in nabeul, consider visiting Gare de Nabeul located at FP2P+95V Gare de Nabeul, Unnamed Road, Av. Habib Bourguiba, Nabeul. This top-rated spot has a rating of 3.6, perfect for train station lovers. Its hours of operation are not available, and it's closed on unspecified days. To get there, use these GPS coordinates: 36.446161266602, 10.738230864963.</t>
+          <t>The Nabeul Train Station is a railway facility located in the heart of Nabeul. Coordinates are (36.446161266602, 10.738230864963). The station caters to the railway needs of the city and its surrounding areas, connecting passengers to various destinations within Tunisia.</t>
         </is>
       </c>
     </row>
@@ -20325,8 +20152,7 @@
       </c>
       <c r="Y194" t="inlineStr">
         <is>
-          <t>If you're in nabeul and looking for a top-rated Gare destination, check out Mrezka located at Route Touristique. 
-With a rating of 3.8, it's a must-visit spot. For more details, visit their website at https://www.google.com/maps/place/Mrezka/data=!4m7!3m6!1s0x13029ee3d0f4c227:0x11d3150d67e7e07d!8m2!3d36.428165!4d10.6810981!16s%2Fg%2F1thknxtc!19sChIJJ8L00OOeAhMRfeDnZw0V0xE?authuser=0&amp;hl=fr&amp;rclk=1 or call them at (not provided).</t>
+          <t>Mrezka is a train station located in Nabeul, Tunisia. It offers train services with destinations to various cities in Tunisia. With a rating of 3.8 out of 5, it has received positive reviews from travelers. Its coordinates are (36.4518267, 10.735152).</t>
         </is>
       </c>
     </row>
@@ -20425,9 +20251,7 @@
       </c>
       <c r="Y195" t="inlineStr">
         <is>
-          <t>If you're in Nabeul and looking for fuel, check out OLA located at FP4J+PF5. 
-This top-rated destination is perfect for drivers and offers a range of services to choose from. 
-With a rating of 3.5, it's a must-visit spot. To get there, use these GPS coordinates: 36.4518267, 10.735152. For more details, call them at 22 830 000.</t>
+          <t>OLA is a gas station located in OLA, Nabeul, Tunisia. It offers gasoline, diesel, and other fuel-related services. Its geographical coordinates are (36.4518267, 10.735152).</t>
         </is>
       </c>
     </row>
@@ -20530,9 +20354,7 @@
       </c>
       <c r="Y196" t="inlineStr">
         <is>
-          <t>If you're in Nabeul searching for a reliable gas station, consider visiting OLA ENERGY NABEUL 2 at OLA ENERGY NABEUL 2, Nabeul. 
-This top-rated destination is a great choice for anyone, and it provides various amenities, including gas, car wash, oil change, and tire services. 
-With a remarkable rating of 4.8, it's a popular spot. This location provides 24/7 service, making it convenient for customers. To get there, input these GPS coordinates: (36.45625, 10.745952) into your navigation system. For more information, call them at 72 286 801.</t>
+          <t>OLA ENERGY NABEUL 2 is a gas station located in Nabeul, Tunisia. It offers 24-hour service and features a car wash, oil change center, and tire shop. The station is highly rated by customers, with a 4.8-star average rating out of 12 reviews.</t>
         </is>
       </c>
     </row>
@@ -20639,7 +20461,7 @@
       </c>
       <c r="Y197" t="inlineStr">
         <is>
-          <t>If you're in nabeul and looking for a reliable gas station, visit Station Shell Hadidane at R27 Avenue Habib Bourguiba, Nabeul 8000. This top-rated destination is perfect for travelers who need to refuel and offers a range of services to choose from, including a superette. With a rating of 4.6, it's a must-visit spot. It's open 24 hours a day, so you can stop by any time. To get there, use these GPS coordinates: 36.448819407471, 10.736671970569. For more details, visit their website at https://find.shell.com/tn/fuel/TN_1400004-nabeul-mc-27 or call them at 71 249 149.</t>
+          <t>Station Shell Hadidane is a gas station located in Nabeul city, Tunisia. It offers a variety of services including fuel, oil changes, and tire repair. The station is open 24 hours a day and is located at 36.448819407471 latitude and 10.736671970569 longitude.</t>
         </is>
       </c>
     </row>
@@ -20746,7 +20568,7 @@
       </c>
       <c r="Y198" t="inlineStr">
         <is>
-          <t>If you're in nabeul and looking for a Station-service, check out Shell Nabeul located at Shell Nabeul, Mc, Avenue du Maghreb Arabe, 27 Av Habib Bourguiba, Nabeul 8000. This top-rated destination is perfect for Station-service, Superette lovers and offers a range of categories to choose from. With a rating of 3.5, it's a must-visit spot. It's open 24h/24. To get there, use these GPS coordinates: 36.448819407471, 10.736671970569. For more details, visit their website at https://find.shell.com/tn/fuel/TN_10044700-nabeul-mc-27 or call them at 71 249 149.</t>
+          <t>Shell Nabeul is a gas station located in Nabeul (36.448819407471, 10.736671970569). It has a 3.5 stars rating from 2 reviews. It is open 24 hours a day and has a convenience store.</t>
         </is>
       </c>
     </row>
@@ -20841,7 +20663,7 @@
       </c>
       <c r="Y199" t="inlineStr">
         <is>
-          <t>If you're in Nabeul and looking for a convenient way to get around, head to Les Deux Oueds located at Bd de l'Environnment, Nabeul. This top-rated transport stop offers easy access to public transportation with a rating of 4.5 making it a must-visit spot. For more details, visit their website at https://www.google.com/maps/place/Les+Deux+Oueds/data=!4m7!3m6!1s0x13029f273b92fd4d:0x877274f7d1cdc70c!8m2!3d36.4321034!4d10.6938493!16s%2Fg%2F1vqyzhmx!19sChIJTf2SOyefAhMRDMfN0fd0coc?authuser=0&amp;hl=fr&amp;rclk=1 or call them at for more information.</t>
+          <t>Les Deux Oueds is a public transportation stop located at Bd de l'Environnment in Nabeul, Tunisia. It is conveniently situated at coordinates (36.436360227028, 10.708351923096), making it easily accessible from various parts of the city.</t>
         </is>
       </c>
     </row>
@@ -20944,10 +20766,7 @@
       </c>
       <c r="Y200" t="inlineStr">
         <is>
-          <t>If you're in Nabeul and looking for a reliable taxi service, check out Station Taxi located at FP3J+6RF. 
-This top-rated taxi station is perfect for travelers and offers a range of services to choose from. 
-With a rating of 5.0, it's a must-visit spot. 
-To get there, use these GPS coordinates: 36.3954306, 10.6136728. For more details, visit their website at http://www.transfert-aeroport-tunis.com/ or call them at 20 262 617.</t>
+          <t>Station Taxi is conveniently located in Nabeul, Tunisia with coordinates (36.3954306, 10.6136728), making it easily accessible for customers. Offering taxi services, Station Taxi is dedicated to providing reliable transportation solutions.</t>
         </is>
       </c>
     </row>
@@ -21042,7 +20861,7 @@
       </c>
       <c r="Y201" t="inlineStr">
         <is>
-          <t>If you're in nabeul and looking for a reliable transportation service, check out STATION LOUAGE NABEUL KLIBIA located at FP4R+P7Q STATION LOUAGE NABEUL KLIBIA, Nabeul. This highly-rated destination has a rating of 4.0 and is a must-visit spot for anyone in need of transportation services. For more details, visit their website at https://www.google.com/maps/place/STATION+LOUAGE+NABEUL+KLIBIA/data=!4m7!3m6!1s0x1302996a9bf5d45f:0x111edcd7122b7223!8m2!3d36.4568814!4d10.7407565!16s%2Fg%2F11pv3p4kzc!19sChIJX9T1m2qZAhMRI3IrEtfcHhE?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>STATION LOUAGE NABEUL KLIBIA is a transportation service located in FP4R+P7Q STATION LOUAGE NABEUL KLIBIA, Nabeul, Tunisia. Its coordinates are (36.4567994, 10.7407239). The place offers transportation services.</t>
         </is>
       </c>
     </row>
@@ -21137,7 +20956,7 @@
       </c>
       <c r="Y202" t="inlineStr">
         <is>
-          <t>If you're in nabeul and looking for a reliable mode of transportation, check out Station Taxi located at FP5G+QWG Station Taxi, RR27, Nabeul. This top-rated destination is perfect for those seeking a convenient and safe taxi service. With a rating of 4.0, it's a must-visit spot for your transportation needs. To get there, use these GPS coordinates: 36.3954306, 10.6136728.</t>
+          <t>**Station Taxi** is a taxi station located in Nabeul, Tunisia. It offers taxi services to and from Nabeul and its surrounding areas. The station is open 24 hours a day, 7 days a week. It is located at the following coordinates: 36.3954306, 10.6136728.</t>
         </is>
       </c>
     </row>
@@ -21232,8 +21051,7 @@
       </c>
       <c r="Y203" t="inlineStr">
         <is>
-          <t>If you're in nabeul and looking for a reliable Station-Service, check out OLA Nabeul located at FP5G+JXR OLA Nabeul, Nabeul. 
-This top-rated spot offers a range of services to choose from and has a rating of 4.0. It's open during these hours: , but closed on . To get there, use these GPS coordinates: 36.4518267, 10.735152. For more details, visit their website at or call them at .</t>
+          <t>OLA Nabeul is a petrol station located in Nabeul, Tunisia, at the coordinates (36.4518267, 10.735152). It offers fuel services and is well-rated with a 4.0 rating. However, more specific information about its offerings, such as its amenities, hours of operation, and other services, is currently unavailable.</t>
         </is>
       </c>
     </row>
@@ -21336,7 +21154,7 @@
       </c>
       <c r="Y204" t="inlineStr">
         <is>
-          <t>If you're in Nabeul and looking for a reliable gas station, Nettoie plus is a great choice. Located at FP2F+R2, Nettoie plus offers a range of services for all your car's needs. With a rating of 5.0, this top-rated station is a must-visit spot. It's open from Monday to Saturday from 08:00-18:00, but closed on Sundays. For more details, visit their website or call them at 27 414 192.</t>
+          <t>Nettoie plus is a gas station located in Nabeul (Tunisia), at the coordinates (36.4518267, 10.735152). It is open from Monday to Saturday from 8:00 am to 6:00 pm. On Sundays it is closed. The station has a featured image and it is well rated by its users (5.0).</t>
         </is>
       </c>
     </row>
@@ -21431,7 +21249,7 @@
       </c>
       <c r="Y205" t="inlineStr">
         <is>
-          <t>If you're in Nabeul and looking for a convenient public transit stop, check out Les Deux Oueds on Bd de l'Environnment. This highly-rated destination is a must-visit spot for public transportation users. It's open during regular hours, and its GPS coordinates are (36.436360227028, 10.708351923096).</t>
+          <t>Discover Les Deux Oueds, a highly-rated public transportation stop in Nabeul. Located at (36.436360227028, 10.708351923096), this stop is easily accessible. With a 4.5-star rating and 2 reviews, Les Deux Oueds is a convenient transportation option for locals and visitors alike.</t>
         </is>
       </c>
     </row>
